--- a/realestate/documents/RipartizioneSpeseImmobiliariCondomini.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliariCondomini.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B3EE1F-670D-4A15-8329-DB637D2C1EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E151A78-5BA4-46AD-B0BA-3DDA00C3C9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
@@ -141,13 +141,13 @@
     <t>Conguaglio</t>
   </si>
   <si>
-    <t>Differenze</t>
-  </si>
-  <si>
     <t>millesimi/centesimi</t>
   </si>
   <si>
     <t>millesimi</t>
+  </si>
+  <si>
+    <t>Controllo</t>
   </si>
 </sst>
 </file>
@@ -301,15 +301,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -358,11 +349,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -381,13 +388,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -748,7 +748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9073075C-C130-45EE-B2DF-A3C8E1CA77C7}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -778,499 +780,499 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="12">
+      <c r="A6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="9">
         <v>200</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>300</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>500</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <f>SUM($D6:$F6)</f>
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="12">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="9">
         <v>54</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>85</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>124</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <f>SUM($D7:$F7)</f>
         <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="12">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="9">
         <v>10241</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>13400</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>22578</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <f>SUM($D8:$F8)</f>
         <v>46219</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="12">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="9">
         <v>1104</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>1210</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>1898</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <f>SUM($D9:$F9)</f>
         <v>4212</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="12">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="9">
         <v>1</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>1</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <f>SUM($D10:$F10)</f>
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>34</v>
+      <c r="G13" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="A14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="10">
         <v>4000</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <f>$B14/$G$8*$D$8</f>
         <v>886.30217010320439</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <f>$B14/$G$8*$E$8</f>
         <v>1159.6962288236441</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="10">
         <f>$B14/$G$8*$F$8</f>
         <v>1954.0016010731517</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="10">
         <f>$B14-SUM($D14:$F14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="10">
         <v>2000</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="C15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="10">
         <f>$B15/$G$6*$D$6</f>
         <v>400</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="10">
         <f>$B15/$G$6*$E$6</f>
         <v>600</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="10">
         <f>$B15/$G$6*$F$6</f>
         <v>1000</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="10">
         <f t="shared" ref="G15:G26" si="0">$B15-SUM($D15:$F15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="10">
         <v>200</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="13">
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="10">
         <f>$B16/$G$6*$D$6</f>
         <v>40</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <f>$B16/$G$6*$E$6</f>
         <v>60</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="10">
         <f>$B16/$G$6*$F$6</f>
         <v>100</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="10">
         <v>50</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="C17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="10">
         <f>$B17/$G$6*$D$6</f>
         <v>10</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <f>$B17/$G$6*$E$6</f>
         <v>15</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <f>$B17/$G$6*$F$6</f>
         <v>25</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="10">
         <v>800</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="10">
         <f>$B18/$G$6*$D$6</f>
         <v>160</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="10">
         <f>$B18/$G$6*$E$6</f>
         <v>240</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="10">
         <f>$B18/$G$6*$F$6</f>
         <v>400</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="10">
         <v>300</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="C19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="10">
         <f>$B19/$G$6*$D$6</f>
         <v>60</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="10">
         <f>$B19/$G$6*$E$6</f>
         <v>90</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="10">
         <f>$B19/$G$6*$F$6</f>
         <v>150</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="10">
         <v>400</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="10">
         <f>$B20/$G$9*$D$9</f>
         <v>104.84330484330485</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="10">
         <f>$B20/$G$9*$E$9</f>
         <v>114.90978157644825</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="10">
         <f>$B20/$G$9*$F$9</f>
         <v>180.24691358024694</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="10">
         <v>500</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="C21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="10">
         <f>$B21/$G$6*$D$6</f>
         <v>100</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="10">
         <f>$B21/$G$6*$E$6</f>
         <v>150</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="10">
         <f>$B21/$G$6*$F$6</f>
         <v>250</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="10">
         <v>100</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="C22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="10">
         <f>$B22/$G$6*$D$6</f>
         <v>20</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="10">
         <f>$B22/$G$6*$E$6</f>
         <v>30</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="10">
         <f>$B22/$G$6*$F$6</f>
         <v>50</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="10">
         <v>1250</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="10">
         <f>$B23/$G$10*$D$10</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="10">
         <f>$B23/$G$10*$E$10</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="10">
         <f>$B23/$G$10*$F$10</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="11">
         <f>SUBTOTAL(109,B14:B23)</f>
         <v>9600</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="14">
+      <c r="C24" s="16"/>
+      <c r="D24" s="11">
         <f>SUBTOTAL(109,D14:D23)</f>
         <v>2197.8121416131758</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="11">
         <f t="shared" ref="E24:F24" si="1">SUBTOTAL(109,E14:E23)</f>
         <v>2876.2726770667587</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="11">
         <f t="shared" si="1"/>
         <v>4525.9151813200651</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="12">
         <f>SUM($D25:$F25)</f>
         <v>-9200</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="15">
+      <c r="C25" s="17"/>
+      <c r="D25" s="12">
         <v>-2000</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="12">
         <v>-3000</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="12">
         <v>-4200</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="10">
         <f>SUM($D26:$F26)</f>
         <v>399.99999999999955</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="13">
+      <c r="C26" s="18"/>
+      <c r="D26" s="10">
         <f>$D24+$D25</f>
         <v>197.81214161317575</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="10">
         <f>$E24+$E25</f>
         <v>-123.72732293324134</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="10">
         <f>$F24+$F25</f>
         <v>325.91518132006513</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1302,7 +1304,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEC9161-9944-4F33-924D-68E41F754380}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1333,554 +1337,554 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="9">
+      <c r="A6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="6">
         <v>200</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>300</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>500</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <f>SUM($D6:$F6)</f>
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="9">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="6">
         <v>54</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>85</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>124</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <f>SUM($D7:$F7)</f>
         <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="9">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="6">
         <v>10241</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>13400</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>22578</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <f>SUM($D8:$F8)</f>
         <v>46219</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="9">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="6">
         <v>1104</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>1210</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>1898</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <f>SUM($D9:$F9)</f>
         <v>4212</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="9">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>1</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <f>SUM($D10:$F10)</f>
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>34</v>
+      <c r="G13" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="A14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="10">
         <v>4000</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <f>$B14/$G$8*$D$8</f>
         <v>886.30217010320439</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <f>$B14/$G$8*$E$8</f>
         <v>1159.6962288236441</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="10">
         <f>$B14/$G$8*$F$8</f>
         <v>1954.0016010731517</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="10">
         <f>$B14-SUM($D14:$F14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="10">
         <v>2000</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="C15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="10">
         <f>$B15/$G$6*$D$6</f>
         <v>400</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="10">
         <f>$B15/$G$6*$E$6</f>
         <v>600</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="10">
         <f>$B15/$G$6*$F$6</f>
         <v>1000</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="10">
         <f t="shared" ref="G15:G26" si="0">$B15-SUM($D15:$F15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="10">
         <v>200</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="13">
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="10">
         <f>$B16/$G$6*$D$6</f>
         <v>40</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <f>$B16/$G$6*$E$6</f>
         <v>60</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="10">
         <f>$B16/$G$6*$F$6</f>
         <v>100</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="10">
         <v>50</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="C17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="10">
         <f>$B17/$G$6*$D$6</f>
         <v>10</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <f>$B17/$G$6*$E$6</f>
         <v>15</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <f>$B17/$G$6*$F$6</f>
         <v>25</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="10">
         <v>800</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="10">
         <f>$B18/$G$6*$D$6</f>
         <v>160</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="10">
         <f>$B18/$G$6*$E$6</f>
         <v>240</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="10">
         <f>$B18/$G$6*$F$6</f>
         <v>400</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="10">
         <v>300</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="C19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="10">
         <f>$B19/$G$6*$D$6</f>
         <v>60</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="10">
         <f>$B19/$G$6*$E$6</f>
         <v>90</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="10">
         <f>$B19/$G$6*$F$6</f>
         <v>150</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="10">
         <v>400</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="10">
         <f>$B20/$G$9*$D$9</f>
         <v>104.84330484330485</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="10">
         <f>$B20/$G$9*$E$9</f>
         <v>114.90978157644825</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="10">
         <f>$B20/$G$9*$F$9</f>
         <v>180.24691358024694</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="10">
         <v>500</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="C21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="10">
         <f>$B21/$G$6*$D$6</f>
         <v>100</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="10">
         <f>$B21/$G$6*$E$6</f>
         <v>150</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="10">
         <f>$B21/$G$6*$F$6</f>
         <v>250</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="10">
         <v>100</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="C22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="10">
         <f>$B22/$G$6*$D$6</f>
         <v>20</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="10">
         <f>$B22/$G$6*$E$6</f>
         <v>30</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="10">
         <f>$B22/$G$6*$F$6</f>
         <v>50</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="10">
         <v>1250</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="10">
         <f>$B23/$G$10*$D$10</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="10">
         <f>$B23/$G$10*$E$10</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="10">
         <f>$B23/$G$10*$F$10</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="11">
         <f>SUBTOTAL(109,B14:B23)</f>
         <v>9600</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="14">
+      <c r="C24" s="16"/>
+      <c r="D24" s="11">
         <f>SUBTOTAL(109,D14:D23)</f>
         <v>2197.8121416131758</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="11">
         <f t="shared" ref="E24" si="1">SUBTOTAL(109,E14:E23)</f>
         <v>2876.2726770667587</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="11">
         <f>SUBTOTAL(109,F14:F23)</f>
         <v>4525.9151813200651</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="12">
         <f>SUM($D25:$F25)</f>
         <v>-9200</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="15">
+      <c r="C25" s="17"/>
+      <c r="D25" s="12">
         <v>-2000</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="12">
         <v>-3000</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="12">
         <v>-4200</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="10">
         <f>SUM($D26:$F26)</f>
         <v>399.99999999999955</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="13">
+      <c r="C26" s="18"/>
+      <c r="D26" s="10">
         <f>$D24+$D25</f>
         <v>197.81214161317575</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="10">
         <f>$E24+$E25</f>
         <v>-123.72732293324134</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="10">
         <f>$F24+$F25</f>
         <v>325.91518132006513</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="6">
         <v>10</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="10">
         <f>$F$24/12*10</f>
         <v>3771.5959844333879</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="10">
         <v>-3500</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="10">
         <f t="shared" ref="E29:E30" si="2">$C29+$D29</f>
         <v>271.59598443338791</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="6">
         <v>2</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="10">
         <f>$F$24/12*2</f>
         <v>754.31919688667756</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="10">
         <v>-700</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="10">
         <f t="shared" si="2"/>
         <v>54.31919688667756</v>
       </c>
@@ -1897,18 +1901,18 @@
     <mergeCell ref="A10:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="D26:F26">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E30">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/realestate/documents/RipartizioneSpeseImmobiliariCondomini.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliariCondomini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E151A78-5BA4-46AD-B0BA-3DDA00C3C9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5FFC63-DD99-4F19-B100-E0A5497CD082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
   <sheets>
     <sheet name="Conguagli spese" sheetId="4" r:id="rId1"/>
@@ -748,9 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9073075C-C130-45EE-B2DF-A3C8E1CA77C7}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1304,9 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEC9161-9944-4F33-924D-68E41F754380}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/realestate/documents/RipartizioneSpeseImmobiliariCondomini.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliariCondomini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5FFC63-DD99-4F19-B100-E0A5497CD082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C8C881-1E1C-47EE-ACE8-7946ECC8FCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
   <sheets>
     <sheet name="Conguagli spese" sheetId="4" r:id="rId1"/>
@@ -196,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -280,24 +280,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -344,9 +331,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -748,7 +732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9073075C-C130-45EE-B2DF-A3C8E1CA77C7}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -778,11 +764,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1257,7 +1243,7 @@
         <f>SUM($D26:$F26)</f>
         <v>399.99999999999955</v>
       </c>
-      <c r="C26" s="18"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="10">
         <f>$D24+$D25</f>
         <v>197.81214161317575</v>
@@ -1302,7 +1288,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEC9161-9944-4F33-924D-68E41F754380}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1333,11 +1321,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1812,7 +1800,7 @@
         <f>SUM($D26:$F26)</f>
         <v>399.99999999999955</v>
       </c>
-      <c r="C26" s="18"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="10">
         <f>$D24+$D25</f>
         <v>197.81214161317575</v>

--- a/realestate/documents/RipartizioneSpeseImmobiliariCondomini.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliariCondomini.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C8C881-1E1C-47EE-ACE8-7946ECC8FCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FF7200-F039-40C8-9091-DCCA1A1E157C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
   <si>
     <t>Riscaldamento</t>
   </si>
@@ -148,6 +148,27 @@
   </si>
   <si>
     <t>Controllo</t>
+  </si>
+  <si>
+    <t>App. 4</t>
+  </si>
+  <si>
+    <t>App. 5</t>
+  </si>
+  <si>
+    <t>App. 6</t>
+  </si>
+  <si>
+    <t>App. 7</t>
+  </si>
+  <si>
+    <t>App. 8</t>
+  </si>
+  <si>
+    <t>App. 9</t>
+  </si>
+  <si>
+    <t>App. 10</t>
   </si>
 </sst>
 </file>
@@ -284,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -342,11 +363,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -730,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9073075C-C130-45EE-B2DF-A3C8E1CA77C7}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,17 +786,17 @@
     <col min="2" max="3" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -763,7 +807,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
@@ -779,30 +823,72 @@
         <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
       <c r="D6" s="9">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="E6" s="6">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="F6" s="6">
-        <v>500</v>
-      </c>
-      <c r="G6" s="6">
-        <f>SUM($D6:$F6)</f>
+        <v>125</v>
+      </c>
+      <c r="G6" s="9">
+        <v>70</v>
+      </c>
+      <c r="H6" s="6">
+        <v>80</v>
+      </c>
+      <c r="I6" s="6">
+        <v>125</v>
+      </c>
+      <c r="J6" s="6">
+        <v>140</v>
+      </c>
+      <c r="K6" s="9">
+        <v>85</v>
+      </c>
+      <c r="L6" s="6">
+        <v>85</v>
+      </c>
+      <c r="M6" s="6">
+        <v>140</v>
+      </c>
+      <c r="N6" s="6">
+        <f>SUM($D6:$M6)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
@@ -817,12 +903,33 @@
       <c r="F7" s="6">
         <v>124</v>
       </c>
-      <c r="G7" s="6">
-        <f>SUM($D7:$F7)</f>
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="9">
+        <v>54</v>
+      </c>
+      <c r="H7" s="6">
+        <v>85</v>
+      </c>
+      <c r="I7" s="6">
+        <v>124</v>
+      </c>
+      <c r="J7" s="6">
+        <v>130</v>
+      </c>
+      <c r="K7" s="9">
+        <v>95</v>
+      </c>
+      <c r="L7" s="6">
+        <v>95</v>
+      </c>
+      <c r="M7" s="6">
+        <v>130</v>
+      </c>
+      <c r="N7" s="6">
+        <f>SUM($D7:$M7)</f>
+        <v>976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -837,12 +944,33 @@
       <c r="F8" s="6">
         <v>22578</v>
       </c>
-      <c r="G8" s="6">
-        <f>SUM($D8:$F8)</f>
-        <v>46219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="9">
+        <v>9980</v>
+      </c>
+      <c r="H8" s="6">
+        <v>15050</v>
+      </c>
+      <c r="I8" s="6">
+        <v>20200</v>
+      </c>
+      <c r="J8" s="6">
+        <v>21000</v>
+      </c>
+      <c r="K8" s="9">
+        <v>8690</v>
+      </c>
+      <c r="L8" s="6">
+        <v>10900</v>
+      </c>
+      <c r="M8" s="6">
+        <v>19000</v>
+      </c>
+      <c r="N8" s="6">
+        <f>SUM($D8:$M8)</f>
+        <v>151039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
@@ -857,12 +985,33 @@
       <c r="F9" s="6">
         <v>1898</v>
       </c>
-      <c r="G9" s="6">
-        <f>SUM($D9:$F9)</f>
-        <v>4212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="9">
+        <v>902</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1050</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1490</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1520</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1385</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1140</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1925</v>
+      </c>
+      <c r="N9" s="6">
+        <f>SUM($D9:$M9)</f>
+        <v>13624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>17</v>
       </c>
@@ -877,12 +1026,33 @@
       <c r="F10" s="6">
         <v>1</v>
       </c>
-      <c r="G10" s="6">
-        <f>SUM($D10:$F10)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
+        <f>SUM($D10:$M10)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
@@ -891,9 +1061,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="9"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -913,312 +1090,641 @@
         <v>15</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="10">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="10">
-        <f>$B14/$G$8*$D$8</f>
-        <v>886.30217010320439</v>
+        <f>$B14/$N$8*$D$8</f>
+        <v>678.03679844278622</v>
       </c>
       <c r="E14" s="10">
-        <f>$B14/$G$8*$E$8</f>
-        <v>1159.6962288236441</v>
+        <f>$B14/$N$8*$E$8</f>
+        <v>887.18807725157069</v>
       </c>
       <c r="F14" s="10">
-        <f>$B14/$G$8*$F$8</f>
-        <v>1954.0016010731517</v>
+        <f>$B14/$N$8*$F$8</f>
+        <v>1494.8457021034301</v>
       </c>
       <c r="G14" s="10">
-        <f>$B14-SUM($D14:$F14)</f>
+        <f>$B14/$N$8*$G$8</f>
+        <v>660.75649335602054</v>
+      </c>
+      <c r="H14" s="10">
+        <f>$B14/$N$8*$H$8</f>
+        <v>996.43138527135363</v>
+      </c>
+      <c r="I14" s="10">
+        <f>$B14/$N$8*$I$8</f>
+        <v>1337.4029224240096</v>
+      </c>
+      <c r="J14" s="10">
+        <f>$B14/$N$8*$J$8</f>
+        <v>1390.3693747972377</v>
+      </c>
+      <c r="K14" s="10">
+        <f>$B14/$N$8*$K$8</f>
+        <v>575.34808890419026</v>
+      </c>
+      <c r="L14" s="10">
+        <f>$B14/$N$8*$L$8</f>
+        <v>721.6679135852329</v>
+      </c>
+      <c r="M14" s="10">
+        <f>$B14/$N$8*$M$8</f>
+        <v>1257.9532438641675</v>
+      </c>
+      <c r="N14" s="10">
+        <f>$B14-SUM($D14:$M14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="10">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="10">
-        <f>$B15/$G$6*$D$6</f>
-        <v>400</v>
+        <f>$B15/$N$6*$D$6</f>
+        <v>420</v>
       </c>
       <c r="E15" s="10">
-        <f>$B15/$G$6*$E$6</f>
-        <v>600</v>
+        <f>$B15/$N$6*$E$6</f>
+        <v>480</v>
       </c>
       <c r="F15" s="10">
-        <f>$B15/$G$6*$F$6</f>
-        <v>1000</v>
+        <f>$B15/$N$6*$F$6</f>
+        <v>750</v>
       </c>
       <c r="G15" s="10">
-        <f t="shared" ref="G15:G26" si="0">$B15-SUM($D15:$F15)</f>
+        <f>$B15/$N$6*$G$6</f>
+        <v>420</v>
+      </c>
+      <c r="H15" s="10">
+        <f>$B15/$N$6*$H$6</f>
+        <v>480</v>
+      </c>
+      <c r="I15" s="10">
+        <f>$B15/$N$6*$I$6</f>
+        <v>750</v>
+      </c>
+      <c r="J15" s="10">
+        <f>$B15/$N$6*$J$6</f>
+        <v>840</v>
+      </c>
+      <c r="K15" s="10">
+        <f>$B15/$N$6*$K$6</f>
+        <v>510</v>
+      </c>
+      <c r="L15" s="10">
+        <f>$B15/$N$6*$L$6</f>
+        <v>510</v>
+      </c>
+      <c r="M15" s="10">
+        <f>$B15/$N$6*$M$6</f>
+        <v>840</v>
+      </c>
+      <c r="N15" s="10">
+        <f>$B15-SUM($D15:$M15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="10">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="10">
-        <f>$B16/$G$6*$D$6</f>
-        <v>40</v>
+        <f>$B16/$N$6*$D$6</f>
+        <v>42</v>
       </c>
       <c r="E16" s="10">
-        <f>$B16/$G$6*$E$6</f>
-        <v>60</v>
+        <f>$B16/$N$6*$E$6</f>
+        <v>48</v>
       </c>
       <c r="F16" s="10">
-        <f>$B16/$G$6*$F$6</f>
-        <v>100</v>
+        <f>$B16/$N$6*$F$6</f>
+        <v>75</v>
       </c>
       <c r="G16" s="10">
+        <f>$B16/$N$6*$G$6</f>
+        <v>42</v>
+      </c>
+      <c r="H16" s="10">
+        <f>$B16/$N$6*$H$6</f>
+        <v>48</v>
+      </c>
+      <c r="I16" s="10">
+        <f>$B16/$N$6*$I$6</f>
+        <v>75</v>
+      </c>
+      <c r="J16" s="10">
+        <f>$B16/$N$6*$J$6</f>
+        <v>84</v>
+      </c>
+      <c r="K16" s="10">
+        <f>$B16/$N$6*$K$6</f>
+        <v>51</v>
+      </c>
+      <c r="L16" s="10">
+        <f>$B16/$N$6*$L$6</f>
+        <v>51</v>
+      </c>
+      <c r="M16" s="10">
+        <f>$B16/$N$6*$M$6</f>
+        <v>84</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" ref="N16:N23" si="0">$B16-SUM($D16:$M16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="10">
+        <v>150</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="10">
+        <f>$B17/$N$6*$D$6</f>
+        <v>10.5</v>
+      </c>
+      <c r="E17" s="10">
+        <f>$B17/$N$6*$E$6</f>
+        <v>12</v>
+      </c>
+      <c r="F17" s="10">
+        <f>$B17/$N$6*$F$6</f>
+        <v>18.75</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" ref="G17:G19" si="1">$B17/$N$6*$G$6</f>
+        <v>10.5</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" ref="H17:H19" si="2">$B17/$N$6*$H$6</f>
+        <v>12</v>
+      </c>
+      <c r="I17" s="10">
+        <f>$B17/$N$6*$I$6</f>
+        <v>18.75</v>
+      </c>
+      <c r="J17" s="10">
+        <f>$B17/$N$6*$J$6</f>
+        <v>21</v>
+      </c>
+      <c r="K17" s="10">
+        <f>$B17/$N$6*$K$6</f>
+        <v>12.75</v>
+      </c>
+      <c r="L17" s="10">
+        <f>$B17/$N$6*$L$6</f>
+        <v>12.75</v>
+      </c>
+      <c r="M17" s="10">
+        <f>$B17/$N$6*$M$6</f>
+        <v>21</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="10">
-        <v>50</v>
-      </c>
-      <c r="C17" s="5" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2400</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="10">
-        <f>$B17/$G$6*$D$6</f>
-        <v>10</v>
-      </c>
-      <c r="E17" s="10">
-        <f>$B17/$G$6*$E$6</f>
-        <v>15</v>
-      </c>
-      <c r="F17" s="10">
-        <f>$B17/$G$6*$F$6</f>
-        <v>25</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="D18" s="10">
+        <f>$B18/$N$6*$D$6</f>
+        <v>168</v>
+      </c>
+      <c r="E18" s="10">
+        <f>$B18/$N$6*$E$6</f>
+        <v>192</v>
+      </c>
+      <c r="F18" s="10">
+        <f>$B18/$N$6*$F$6</f>
+        <v>300</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="I18" s="10">
+        <f>$B18/$N$6*$I$6</f>
+        <v>300</v>
+      </c>
+      <c r="J18" s="10">
+        <f>$B18/$N$6*$J$6</f>
+        <v>336</v>
+      </c>
+      <c r="K18" s="10">
+        <f>$B18/$N$6*$K$6</f>
+        <v>204</v>
+      </c>
+      <c r="L18" s="10">
+        <f>$B18/$N$6*$L$6</f>
+        <v>204</v>
+      </c>
+      <c r="M18" s="10">
+        <f>$B18/$N$6*$M$6</f>
+        <v>336</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="10">
-        <v>800</v>
-      </c>
-      <c r="C18" s="5" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="10">
+        <v>900</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="10">
-        <f>$B18/$G$6*$D$6</f>
-        <v>160</v>
-      </c>
-      <c r="E18" s="10">
-        <f>$B18/$G$6*$E$6</f>
-        <v>240</v>
-      </c>
-      <c r="F18" s="10">
-        <f>$B18/$G$6*$F$6</f>
-        <v>400</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="D19" s="10">
+        <f>$B19/$N$6*$D$6</f>
+        <v>63</v>
+      </c>
+      <c r="E19" s="10">
+        <f>$B19/$N$6*$E$6</f>
+        <v>72</v>
+      </c>
+      <c r="F19" s="10">
+        <f>$B19/$N$6*$F$6</f>
+        <v>112.5</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="I19" s="10">
+        <f>$B19/$N$6*$I$6</f>
+        <v>112.5</v>
+      </c>
+      <c r="J19" s="10">
+        <f>$B19/$N$6*$J$6</f>
+        <v>126</v>
+      </c>
+      <c r="K19" s="10">
+        <f>$B19/$N$6*$K$6</f>
+        <v>76.5</v>
+      </c>
+      <c r="L19" s="10">
+        <f>$B19/$N$6*$L$6</f>
+        <v>76.5</v>
+      </c>
+      <c r="M19" s="10">
+        <f>$B19/$N$6*$M$6</f>
+        <v>126</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="10">
-        <v>300</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="10">
-        <f>$B19/$G$6*$D$6</f>
-        <v>60</v>
-      </c>
-      <c r="E19" s="10">
-        <f>$B19/$G$6*$E$6</f>
-        <v>90</v>
-      </c>
-      <c r="F19" s="10">
-        <f>$B19/$G$6*$F$6</f>
-        <v>150</v>
-      </c>
-      <c r="G19" s="10">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1200</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="10">
+        <f>$B20/$N$9*$D$9</f>
+        <v>97.240164415736942</v>
+      </c>
+      <c r="E20" s="10">
+        <f>$B20/$N$9*$E$9</f>
+        <v>106.57662947739284</v>
+      </c>
+      <c r="F20" s="10">
+        <f>$B20/$N$9*$F$9</f>
+        <v>167.17557251908397</v>
+      </c>
+      <c r="G20" s="10">
+        <f>$B20/$N$9*$G$9</f>
+        <v>79.448032883147391</v>
+      </c>
+      <c r="H20" s="10">
+        <f>$B20/$N$9*$H$9</f>
+        <v>92.483852025836754</v>
+      </c>
+      <c r="I20" s="10">
+        <f>$B20/$N$9*$I$9</f>
+        <v>131.23899001761598</v>
+      </c>
+      <c r="J20" s="10">
+        <f>$B20/$N$9*$J$9</f>
+        <v>133.88138578978274</v>
+      </c>
+      <c r="K20" s="10">
+        <f>$B20/$N$9*$K$9</f>
+        <v>121.9906048150323</v>
+      </c>
+      <c r="L20" s="10">
+        <f>$B20/$N$9*$L$9</f>
+        <v>100.41103934233705</v>
+      </c>
+      <c r="M20" s="10">
+        <f>$B20/$N$9*$M$9</f>
+        <v>169.55372871403407</v>
+      </c>
+      <c r="N20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="10">
-        <v>400</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="10">
-        <f>$B20/$G$9*$D$9</f>
-        <v>104.84330484330485</v>
-      </c>
-      <c r="E20" s="10">
-        <f>$B20/$G$9*$E$9</f>
-        <v>114.90978157644825</v>
-      </c>
-      <c r="F20" s="10">
-        <f>$B20/$G$9*$F$9</f>
-        <v>180.24691358024694</v>
-      </c>
-      <c r="G20" s="10">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1500</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="10">
+        <f>$B21/$N$6*$D$6</f>
+        <v>105</v>
+      </c>
+      <c r="E21" s="10">
+        <f>$B21/$N$6*$E$6</f>
+        <v>120</v>
+      </c>
+      <c r="F21" s="10">
+        <f>$B21/$N$6*$F$6</f>
+        <v>187.5</v>
+      </c>
+      <c r="G21" s="10">
+        <f>$B21/$N$6*$G$6</f>
+        <v>105</v>
+      </c>
+      <c r="H21" s="10">
+        <f>$B21/$N$6*$H$6</f>
+        <v>120</v>
+      </c>
+      <c r="I21" s="10">
+        <f>$B21/$N$6*$I$6</f>
+        <v>187.5</v>
+      </c>
+      <c r="J21" s="10">
+        <f>$B21/$N$6*$J$6</f>
+        <v>210</v>
+      </c>
+      <c r="K21" s="10">
+        <f>$B21/$N$6*$K$6</f>
+        <v>127.5</v>
+      </c>
+      <c r="L21" s="10">
+        <f>$B21/$N$6*$L$6</f>
+        <v>127.5</v>
+      </c>
+      <c r="M21" s="10">
+        <f>$B21/$N$6*$M$6</f>
+        <v>210</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="10">
-        <v>500</v>
-      </c>
-      <c r="C21" s="5" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="10">
+        <v>190</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="10">
-        <f>$B21/$G$6*$D$6</f>
-        <v>100</v>
-      </c>
-      <c r="E21" s="10">
-        <f>$B21/$G$6*$E$6</f>
-        <v>150</v>
-      </c>
-      <c r="F21" s="10">
-        <f>$B21/$G$6*$F$6</f>
-        <v>250</v>
-      </c>
-      <c r="G21" s="10">
+      <c r="D22" s="10">
+        <f>$B22/$N$6*$D$6</f>
+        <v>13.3</v>
+      </c>
+      <c r="E22" s="10">
+        <f>$B22/$N$6*$E$6</f>
+        <v>15.2</v>
+      </c>
+      <c r="F22" s="10">
+        <f>$B22/$N$6*$F$6</f>
+        <v>23.75</v>
+      </c>
+      <c r="G22" s="10">
+        <f>$B22/$N$6*$G$6</f>
+        <v>13.3</v>
+      </c>
+      <c r="H22" s="10">
+        <f>$B22/$N$6*$H$6</f>
+        <v>15.2</v>
+      </c>
+      <c r="I22" s="10">
+        <f>$B22/$N$6*$I$6</f>
+        <v>23.75</v>
+      </c>
+      <c r="J22" s="10">
+        <f>$B22/$N$6*$J$6</f>
+        <v>26.6</v>
+      </c>
+      <c r="K22" s="10">
+        <f>$B22/$N$6*$K$6</f>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="L22" s="10">
+        <f>$B22/$N$6*$L$6</f>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="M22" s="10">
+        <f>$B22/$N$6*$M$6</f>
+        <v>26.6</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="10">
-        <v>100</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="10">
-        <f>$B22/$G$6*$D$6</f>
-        <v>20</v>
-      </c>
-      <c r="E22" s="10">
-        <f>$B22/$G$6*$E$6</f>
-        <v>30</v>
-      </c>
-      <c r="F22" s="10">
-        <f>$B22/$G$6*$F$6</f>
-        <v>50</v>
-      </c>
-      <c r="G22" s="10">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="10">
+        <v>3750</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="10">
+        <f>$B23/$N$10*$D$10</f>
+        <v>375</v>
+      </c>
+      <c r="E23" s="10">
+        <f>$B23/$N$10*$E$10</f>
+        <v>375</v>
+      </c>
+      <c r="F23" s="10">
+        <f>$B23/$N$10*$F$10</f>
+        <v>375</v>
+      </c>
+      <c r="G23" s="10">
+        <f>$B23/$N$10*$G$10</f>
+        <v>375</v>
+      </c>
+      <c r="H23" s="10">
+        <f>$B23/$N$10*$H$10</f>
+        <v>375</v>
+      </c>
+      <c r="I23" s="10">
+        <f>$B23/$N$10*$I$10</f>
+        <v>375</v>
+      </c>
+      <c r="J23" s="10">
+        <f>$B23/$N$10*$J$10</f>
+        <v>375</v>
+      </c>
+      <c r="K23" s="10">
+        <f>$B23/$N$10*$K$10</f>
+        <v>375</v>
+      </c>
+      <c r="L23" s="10">
+        <f>$B23/$N$10*$L$10</f>
+        <v>375</v>
+      </c>
+      <c r="M23" s="10">
+        <f>$B23/$N$10*$M$10</f>
+        <v>375</v>
+      </c>
+      <c r="N23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="10">
-        <v>1250</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="10">
-        <f>$B23/$G$10*$D$10</f>
-        <v>416.66666666666669</v>
-      </c>
-      <c r="E23" s="10">
-        <f>$B23/$G$10*$E$10</f>
-        <v>416.66666666666669</v>
-      </c>
-      <c r="F23" s="10">
-        <f>$B23/$G$10*$F$10</f>
-        <v>416.66666666666669</v>
-      </c>
-      <c r="G23" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="11">
         <f>SUBTOTAL(109,B14:B23)</f>
-        <v>9600</v>
+        <v>26690</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="11">
         <f>SUBTOTAL(109,D14:D23)</f>
-        <v>2197.8121416131758</v>
+        <v>1972.0769628585231</v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" ref="E24:F24" si="1">SUBTOTAL(109,E14:E23)</f>
-        <v>2876.2726770667587</v>
+        <f t="shared" ref="E24:F24" si="3">SUBTOTAL(109,E14:E23)</f>
+        <v>2307.9647067289634</v>
       </c>
       <c r="F24" s="11">
-        <f t="shared" si="1"/>
-        <v>4525.9151813200651</v>
+        <f t="shared" si="3"/>
+        <v>3504.5212746225143</v>
       </c>
       <c r="G24" s="11">
-        <f t="shared" si="0"/>
+        <f>SUBTOTAL(109,G14:G23)</f>
+        <v>1937.0045262391679</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" ref="H24:J24" si="4">SUBTOTAL(109,H14:H23)</f>
+        <v>2403.1152372971901</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="4"/>
+        <v>3311.1419124416252</v>
+      </c>
+      <c r="J24" s="11">
+        <f t="shared" si="4"/>
+        <v>3542.85076058702</v>
+      </c>
+      <c r="K24" s="11">
+        <f>SUBTOTAL(109,K14:K23)</f>
+        <v>2070.2386937192227</v>
+      </c>
+      <c r="L24" s="11">
+        <f t="shared" ref="L24:M24" si="5">SUBTOTAL(109,L14:L23)</f>
+        <v>2194.9789529275699</v>
+      </c>
+      <c r="M24" s="11">
+        <f t="shared" si="5"/>
+        <v>3446.1069725782013</v>
+      </c>
+      <c r="N24" s="21">
+        <f>$B24-SUM($D24:$M24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="12">
-        <f>SUM($D25:$F25)</f>
-        <v>-9200</v>
+        <f>SUM($D25:$M25)</f>
+        <v>-31800</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="12">
@@ -1231,33 +1737,82 @@
         <v>-4200</v>
       </c>
       <c r="G25" s="12">
-        <f t="shared" si="0"/>
+        <v>-2000</v>
+      </c>
+      <c r="H25" s="12">
+        <v>-3000</v>
+      </c>
+      <c r="I25" s="12">
+        <v>-4200</v>
+      </c>
+      <c r="J25" s="12">
+        <v>-4200</v>
+      </c>
+      <c r="K25" s="12">
+        <v>-2000</v>
+      </c>
+      <c r="L25" s="12">
+        <v>-3000</v>
+      </c>
+      <c r="M25" s="12">
+        <v>-4200</v>
+      </c>
+      <c r="N25" s="12">
+        <f>$B25-SUM($D25:$M25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="10">
-        <f>SUM($D26:$F26)</f>
-        <v>399.99999999999955</v>
+        <f>SUM($D26:$M26)</f>
+        <v>-5110.0000000000018</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="10">
         <f>$D24+$D25</f>
-        <v>197.81214161317575</v>
+        <v>-27.923037141476925</v>
       </c>
       <c r="E26" s="10">
         <f>$E24+$E25</f>
-        <v>-123.72732293324134</v>
+        <v>-692.03529327103661</v>
       </c>
       <c r="F26" s="10">
         <f>$F24+$F25</f>
-        <v>325.91518132006513</v>
+        <v>-695.47872537748572</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" si="0"/>
+        <f>$G24+$G25</f>
+        <v>-62.995473760832056</v>
+      </c>
+      <c r="H26" s="10">
+        <f>$H24+$H25</f>
+        <v>-596.88476270280989</v>
+      </c>
+      <c r="I26" s="10">
+        <f>$I24+$I25</f>
+        <v>-888.85808755837479</v>
+      </c>
+      <c r="J26" s="10">
+        <f>$J24+$J25</f>
+        <v>-657.14923941298002</v>
+      </c>
+      <c r="K26" s="10">
+        <f>$K24+$K25</f>
+        <v>70.238693719222738</v>
+      </c>
+      <c r="L26" s="10">
+        <f>$L24+$L25</f>
+        <v>-805.02104707243006</v>
+      </c>
+      <c r="M26" s="10">
+        <f>$M24+$M25</f>
+        <v>-753.89302742179871</v>
+      </c>
+      <c r="N26" s="10">
+        <f>$B26-SUM($D26:$M26)</f>
         <v>0</v>
       </c>
     </row>
@@ -1272,24 +1827,25 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
   </mergeCells>
-  <conditionalFormatting sqref="D26:F26">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="D26:M26">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEC9161-9944-4F33-924D-68E41F754380}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1299,17 +1855,17 @@
     <col min="5" max="5" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1320,7 +1876,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1336,36 +1892,78 @@
         <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="6">
-        <v>200</v>
+      <c r="D6" s="9">
+        <v>70</v>
       </c>
       <c r="E6" s="6">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="F6" s="6">
-        <v>500</v>
-      </c>
-      <c r="G6" s="6">
-        <f>SUM($D6:$F6)</f>
+        <v>125</v>
+      </c>
+      <c r="G6" s="9">
+        <v>70</v>
+      </c>
+      <c r="H6" s="6">
+        <v>80</v>
+      </c>
+      <c r="I6" s="6">
+        <v>125</v>
+      </c>
+      <c r="J6" s="6">
+        <v>140</v>
+      </c>
+      <c r="K6" s="9">
+        <v>85</v>
+      </c>
+      <c r="L6" s="6">
+        <v>85</v>
+      </c>
+      <c r="M6" s="6">
+        <v>140</v>
+      </c>
+      <c r="N6" s="6">
+        <f>SUM($D6:$M6)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="6">
+      <c r="D7" s="9">
         <v>54</v>
       </c>
       <c r="E7" s="6">
@@ -1374,18 +1972,39 @@
       <c r="F7" s="6">
         <v>124</v>
       </c>
-      <c r="G7" s="6">
-        <f>SUM($D7:$F7)</f>
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="9">
+        <v>54</v>
+      </c>
+      <c r="H7" s="6">
+        <v>85</v>
+      </c>
+      <c r="I7" s="6">
+        <v>124</v>
+      </c>
+      <c r="J7" s="6">
+        <v>130</v>
+      </c>
+      <c r="K7" s="9">
+        <v>95</v>
+      </c>
+      <c r="L7" s="6">
+        <v>95</v>
+      </c>
+      <c r="M7" s="6">
+        <v>130</v>
+      </c>
+      <c r="N7" s="6">
+        <f>SUM($D7:$M7)</f>
+        <v>976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="6">
+      <c r="D8" s="9">
         <v>10241</v>
       </c>
       <c r="E8" s="6">
@@ -1394,18 +2013,39 @@
       <c r="F8" s="6">
         <v>22578</v>
       </c>
-      <c r="G8" s="6">
-        <f>SUM($D8:$F8)</f>
-        <v>46219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="9">
+        <v>9980</v>
+      </c>
+      <c r="H8" s="6">
+        <v>15050</v>
+      </c>
+      <c r="I8" s="6">
+        <v>20200</v>
+      </c>
+      <c r="J8" s="6">
+        <v>21000</v>
+      </c>
+      <c r="K8" s="9">
+        <v>8690</v>
+      </c>
+      <c r="L8" s="6">
+        <v>10900</v>
+      </c>
+      <c r="M8" s="6">
+        <v>19000</v>
+      </c>
+      <c r="N8" s="6">
+        <f>SUM($D8:$M8)</f>
+        <v>151039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="6">
+      <c r="D9" s="9">
         <v>1104</v>
       </c>
       <c r="E9" s="6">
@@ -1414,18 +2054,39 @@
       <c r="F9" s="6">
         <v>1898</v>
       </c>
-      <c r="G9" s="6">
-        <f>SUM($D9:$F9)</f>
-        <v>4212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="9">
+        <v>902</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1050</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1490</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1520</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1385</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1140</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1925</v>
+      </c>
+      <c r="N9" s="6">
+        <f>SUM($D9:$M9)</f>
+        <v>13624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="6">
+      <c r="D10" s="9">
         <v>1</v>
       </c>
       <c r="E10" s="6">
@@ -1434,23 +2095,51 @@
       <c r="F10" s="6">
         <v>1</v>
       </c>
-      <c r="G10" s="6">
-        <f>SUM($D10:$F10)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
+        <f>SUM($D10:$M10)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="9"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1470,312 +2159,641 @@
         <v>15</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="10">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="10">
-        <f>$B14/$G$8*$D$8</f>
-        <v>886.30217010320439</v>
+        <f>$B14/$N$8*$D$8</f>
+        <v>678.03679844278622</v>
       </c>
       <c r="E14" s="10">
-        <f>$B14/$G$8*$E$8</f>
-        <v>1159.6962288236441</v>
+        <f>$B14/$N$8*$E$8</f>
+        <v>887.18807725157069</v>
       </c>
       <c r="F14" s="10">
-        <f>$B14/$G$8*$F$8</f>
-        <v>1954.0016010731517</v>
+        <f>$B14/$N$8*$F$8</f>
+        <v>1494.8457021034301</v>
       </c>
       <c r="G14" s="10">
-        <f>$B14-SUM($D14:$F14)</f>
+        <f>$B14/$N$8*$G$8</f>
+        <v>660.75649335602054</v>
+      </c>
+      <c r="H14" s="10">
+        <f>$B14/$N$8*$H$8</f>
+        <v>996.43138527135363</v>
+      </c>
+      <c r="I14" s="10">
+        <f>$B14/$N$8*$I$8</f>
+        <v>1337.4029224240096</v>
+      </c>
+      <c r="J14" s="10">
+        <f>$B14/$N$8*$J$8</f>
+        <v>1390.3693747972377</v>
+      </c>
+      <c r="K14" s="10">
+        <f>$B14/$N$8*$K$8</f>
+        <v>575.34808890419026</v>
+      </c>
+      <c r="L14" s="10">
+        <f>$B14/$N$8*$L$8</f>
+        <v>721.6679135852329</v>
+      </c>
+      <c r="M14" s="10">
+        <f>$B14/$N$8*$M$8</f>
+        <v>1257.9532438641675</v>
+      </c>
+      <c r="N14" s="10">
+        <f>$B14-SUM($D14:$M14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="10">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="10">
-        <f>$B15/$G$6*$D$6</f>
-        <v>400</v>
+        <f>$B15/$N$6*$D$6</f>
+        <v>420</v>
       </c>
       <c r="E15" s="10">
-        <f>$B15/$G$6*$E$6</f>
-        <v>600</v>
+        <f>$B15/$N$6*$E$6</f>
+        <v>480</v>
       </c>
       <c r="F15" s="10">
-        <f>$B15/$G$6*$F$6</f>
-        <v>1000</v>
+        <f>$B15/$N$6*$F$6</f>
+        <v>750</v>
       </c>
       <c r="G15" s="10">
-        <f t="shared" ref="G15:G26" si="0">$B15-SUM($D15:$F15)</f>
+        <f>$B15/$N$6*$G$6</f>
+        <v>420</v>
+      </c>
+      <c r="H15" s="10">
+        <f>$B15/$N$6*$H$6</f>
+        <v>480</v>
+      </c>
+      <c r="I15" s="10">
+        <f>$B15/$N$6*$I$6</f>
+        <v>750</v>
+      </c>
+      <c r="J15" s="10">
+        <f>$B15/$N$6*$J$6</f>
+        <v>840</v>
+      </c>
+      <c r="K15" s="10">
+        <f>$B15/$N$6*$K$6</f>
+        <v>510</v>
+      </c>
+      <c r="L15" s="10">
+        <f>$B15/$N$6*$L$6</f>
+        <v>510</v>
+      </c>
+      <c r="M15" s="10">
+        <f>$B15/$N$6*$M$6</f>
+        <v>840</v>
+      </c>
+      <c r="N15" s="10">
+        <f>$B15-SUM($D15:$M15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="10">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="10">
-        <f>$B16/$G$6*$D$6</f>
-        <v>40</v>
+        <f>$B16/$N$6*$D$6</f>
+        <v>42</v>
       </c>
       <c r="E16" s="10">
-        <f>$B16/$G$6*$E$6</f>
-        <v>60</v>
+        <f>$B16/$N$6*$E$6</f>
+        <v>48</v>
       </c>
       <c r="F16" s="10">
-        <f>$B16/$G$6*$F$6</f>
-        <v>100</v>
+        <f>$B16/$N$6*$F$6</f>
+        <v>75</v>
       </c>
       <c r="G16" s="10">
+        <f>$B16/$N$6*$G$6</f>
+        <v>42</v>
+      </c>
+      <c r="H16" s="10">
+        <f>$B16/$N$6*$H$6</f>
+        <v>48</v>
+      </c>
+      <c r="I16" s="10">
+        <f>$B16/$N$6*$I$6</f>
+        <v>75</v>
+      </c>
+      <c r="J16" s="10">
+        <f>$B16/$N$6*$J$6</f>
+        <v>84</v>
+      </c>
+      <c r="K16" s="10">
+        <f>$B16/$N$6*$K$6</f>
+        <v>51</v>
+      </c>
+      <c r="L16" s="10">
+        <f>$B16/$N$6*$L$6</f>
+        <v>51</v>
+      </c>
+      <c r="M16" s="10">
+        <f>$B16/$N$6*$M$6</f>
+        <v>84</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" ref="N16:N23" si="0">$B16-SUM($D16:$M16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="10">
+        <v>150</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="10">
+        <f>$B17/$N$6*$D$6</f>
+        <v>10.5</v>
+      </c>
+      <c r="E17" s="10">
+        <f>$B17/$N$6*$E$6</f>
+        <v>12</v>
+      </c>
+      <c r="F17" s="10">
+        <f>$B17/$N$6*$F$6</f>
+        <v>18.75</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" ref="G17:G19" si="1">$B17/$N$6*$G$6</f>
+        <v>10.5</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" ref="H17:H19" si="2">$B17/$N$6*$H$6</f>
+        <v>12</v>
+      </c>
+      <c r="I17" s="10">
+        <f>$B17/$N$6*$I$6</f>
+        <v>18.75</v>
+      </c>
+      <c r="J17" s="10">
+        <f>$B17/$N$6*$J$6</f>
+        <v>21</v>
+      </c>
+      <c r="K17" s="10">
+        <f>$B17/$N$6*$K$6</f>
+        <v>12.75</v>
+      </c>
+      <c r="L17" s="10">
+        <f>$B17/$N$6*$L$6</f>
+        <v>12.75</v>
+      </c>
+      <c r="M17" s="10">
+        <f>$B17/$N$6*$M$6</f>
+        <v>21</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="10">
-        <v>50</v>
-      </c>
-      <c r="C17" s="5" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2400</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="10">
-        <f>$B17/$G$6*$D$6</f>
-        <v>10</v>
-      </c>
-      <c r="E17" s="10">
-        <f>$B17/$G$6*$E$6</f>
-        <v>15</v>
-      </c>
-      <c r="F17" s="10">
-        <f>$B17/$G$6*$F$6</f>
-        <v>25</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="D18" s="10">
+        <f>$B18/$N$6*$D$6</f>
+        <v>168</v>
+      </c>
+      <c r="E18" s="10">
+        <f>$B18/$N$6*$E$6</f>
+        <v>192</v>
+      </c>
+      <c r="F18" s="10">
+        <f>$B18/$N$6*$F$6</f>
+        <v>300</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="I18" s="10">
+        <f>$B18/$N$6*$I$6</f>
+        <v>300</v>
+      </c>
+      <c r="J18" s="10">
+        <f>$B18/$N$6*$J$6</f>
+        <v>336</v>
+      </c>
+      <c r="K18" s="10">
+        <f>$B18/$N$6*$K$6</f>
+        <v>204</v>
+      </c>
+      <c r="L18" s="10">
+        <f>$B18/$N$6*$L$6</f>
+        <v>204</v>
+      </c>
+      <c r="M18" s="10">
+        <f>$B18/$N$6*$M$6</f>
+        <v>336</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="10">
-        <v>800</v>
-      </c>
-      <c r="C18" s="5" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="10">
+        <v>900</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="10">
-        <f>$B18/$G$6*$D$6</f>
-        <v>160</v>
-      </c>
-      <c r="E18" s="10">
-        <f>$B18/$G$6*$E$6</f>
-        <v>240</v>
-      </c>
-      <c r="F18" s="10">
-        <f>$B18/$G$6*$F$6</f>
-        <v>400</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="D19" s="10">
+        <f>$B19/$N$6*$D$6</f>
+        <v>63</v>
+      </c>
+      <c r="E19" s="10">
+        <f>$B19/$N$6*$E$6</f>
+        <v>72</v>
+      </c>
+      <c r="F19" s="10">
+        <f>$B19/$N$6*$F$6</f>
+        <v>112.5</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="I19" s="10">
+        <f>$B19/$N$6*$I$6</f>
+        <v>112.5</v>
+      </c>
+      <c r="J19" s="10">
+        <f>$B19/$N$6*$J$6</f>
+        <v>126</v>
+      </c>
+      <c r="K19" s="10">
+        <f>$B19/$N$6*$K$6</f>
+        <v>76.5</v>
+      </c>
+      <c r="L19" s="10">
+        <f>$B19/$N$6*$L$6</f>
+        <v>76.5</v>
+      </c>
+      <c r="M19" s="10">
+        <f>$B19/$N$6*$M$6</f>
+        <v>126</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="10">
-        <v>300</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="10">
-        <f>$B19/$G$6*$D$6</f>
-        <v>60</v>
-      </c>
-      <c r="E19" s="10">
-        <f>$B19/$G$6*$E$6</f>
-        <v>90</v>
-      </c>
-      <c r="F19" s="10">
-        <f>$B19/$G$6*$F$6</f>
-        <v>150</v>
-      </c>
-      <c r="G19" s="10">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1200</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="10">
+        <f>$B20/$N$9*$D$9</f>
+        <v>97.240164415736942</v>
+      </c>
+      <c r="E20" s="10">
+        <f>$B20/$N$9*$E$9</f>
+        <v>106.57662947739284</v>
+      </c>
+      <c r="F20" s="10">
+        <f>$B20/$N$9*$F$9</f>
+        <v>167.17557251908397</v>
+      </c>
+      <c r="G20" s="10">
+        <f>$B20/$N$9*$G$9</f>
+        <v>79.448032883147391</v>
+      </c>
+      <c r="H20" s="10">
+        <f>$B20/$N$9*$H$9</f>
+        <v>92.483852025836754</v>
+      </c>
+      <c r="I20" s="10">
+        <f>$B20/$N$9*$I$9</f>
+        <v>131.23899001761598</v>
+      </c>
+      <c r="J20" s="10">
+        <f>$B20/$N$9*$J$9</f>
+        <v>133.88138578978274</v>
+      </c>
+      <c r="K20" s="10">
+        <f>$B20/$N$9*$K$9</f>
+        <v>121.9906048150323</v>
+      </c>
+      <c r="L20" s="10">
+        <f>$B20/$N$9*$L$9</f>
+        <v>100.41103934233705</v>
+      </c>
+      <c r="M20" s="10">
+        <f>$B20/$N$9*$M$9</f>
+        <v>169.55372871403407</v>
+      </c>
+      <c r="N20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="10">
-        <v>400</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="10">
-        <f>$B20/$G$9*$D$9</f>
-        <v>104.84330484330485</v>
-      </c>
-      <c r="E20" s="10">
-        <f>$B20/$G$9*$E$9</f>
-        <v>114.90978157644825</v>
-      </c>
-      <c r="F20" s="10">
-        <f>$B20/$G$9*$F$9</f>
-        <v>180.24691358024694</v>
-      </c>
-      <c r="G20" s="10">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1500</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="10">
+        <f>$B21/$N$6*$D$6</f>
+        <v>105</v>
+      </c>
+      <c r="E21" s="10">
+        <f>$B21/$N$6*$E$6</f>
+        <v>120</v>
+      </c>
+      <c r="F21" s="10">
+        <f>$B21/$N$6*$F$6</f>
+        <v>187.5</v>
+      </c>
+      <c r="G21" s="10">
+        <f>$B21/$N$6*$G$6</f>
+        <v>105</v>
+      </c>
+      <c r="H21" s="10">
+        <f>$B21/$N$6*$H$6</f>
+        <v>120</v>
+      </c>
+      <c r="I21" s="10">
+        <f>$B21/$N$6*$I$6</f>
+        <v>187.5</v>
+      </c>
+      <c r="J21" s="10">
+        <f>$B21/$N$6*$J$6</f>
+        <v>210</v>
+      </c>
+      <c r="K21" s="10">
+        <f>$B21/$N$6*$K$6</f>
+        <v>127.5</v>
+      </c>
+      <c r="L21" s="10">
+        <f>$B21/$N$6*$L$6</f>
+        <v>127.5</v>
+      </c>
+      <c r="M21" s="10">
+        <f>$B21/$N$6*$M$6</f>
+        <v>210</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="10">
-        <v>500</v>
-      </c>
-      <c r="C21" s="5" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="10">
+        <v>190</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="10">
-        <f>$B21/$G$6*$D$6</f>
-        <v>100</v>
-      </c>
-      <c r="E21" s="10">
-        <f>$B21/$G$6*$E$6</f>
-        <v>150</v>
-      </c>
-      <c r="F21" s="10">
-        <f>$B21/$G$6*$F$6</f>
-        <v>250</v>
-      </c>
-      <c r="G21" s="10">
+      <c r="D22" s="10">
+        <f>$B22/$N$6*$D$6</f>
+        <v>13.3</v>
+      </c>
+      <c r="E22" s="10">
+        <f>$B22/$N$6*$E$6</f>
+        <v>15.2</v>
+      </c>
+      <c r="F22" s="10">
+        <f>$B22/$N$6*$F$6</f>
+        <v>23.75</v>
+      </c>
+      <c r="G22" s="10">
+        <f>$B22/$N$6*$G$6</f>
+        <v>13.3</v>
+      </c>
+      <c r="H22" s="10">
+        <f>$B22/$N$6*$H$6</f>
+        <v>15.2</v>
+      </c>
+      <c r="I22" s="10">
+        <f>$B22/$N$6*$I$6</f>
+        <v>23.75</v>
+      </c>
+      <c r="J22" s="10">
+        <f>$B22/$N$6*$J$6</f>
+        <v>26.6</v>
+      </c>
+      <c r="K22" s="10">
+        <f>$B22/$N$6*$K$6</f>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="L22" s="10">
+        <f>$B22/$N$6*$L$6</f>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="M22" s="10">
+        <f>$B22/$N$6*$M$6</f>
+        <v>26.6</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="10">
-        <v>100</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="10">
-        <f>$B22/$G$6*$D$6</f>
-        <v>20</v>
-      </c>
-      <c r="E22" s="10">
-        <f>$B22/$G$6*$E$6</f>
-        <v>30</v>
-      </c>
-      <c r="F22" s="10">
-        <f>$B22/$G$6*$F$6</f>
-        <v>50</v>
-      </c>
-      <c r="G22" s="10">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="10">
+        <v>3750</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="10">
+        <f>$B23/$N$10*$D$10</f>
+        <v>375</v>
+      </c>
+      <c r="E23" s="10">
+        <f>$B23/$N$10*$E$10</f>
+        <v>375</v>
+      </c>
+      <c r="F23" s="10">
+        <f>$B23/$N$10*$F$10</f>
+        <v>375</v>
+      </c>
+      <c r="G23" s="10">
+        <f>$B23/$N$10*$G$10</f>
+        <v>375</v>
+      </c>
+      <c r="H23" s="10">
+        <f>$B23/$N$10*$H$10</f>
+        <v>375</v>
+      </c>
+      <c r="I23" s="10">
+        <f>$B23/$N$10*$I$10</f>
+        <v>375</v>
+      </c>
+      <c r="J23" s="10">
+        <f>$B23/$N$10*$J$10</f>
+        <v>375</v>
+      </c>
+      <c r="K23" s="10">
+        <f>$B23/$N$10*$K$10</f>
+        <v>375</v>
+      </c>
+      <c r="L23" s="10">
+        <f>$B23/$N$10*$L$10</f>
+        <v>375</v>
+      </c>
+      <c r="M23" s="10">
+        <f>$B23/$N$10*$M$10</f>
+        <v>375</v>
+      </c>
+      <c r="N23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="10">
-        <v>1250</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="10">
-        <f>$B23/$G$10*$D$10</f>
-        <v>416.66666666666669</v>
-      </c>
-      <c r="E23" s="10">
-        <f>$B23/$G$10*$E$10</f>
-        <v>416.66666666666669</v>
-      </c>
-      <c r="F23" s="10">
-        <f>$B23/$G$10*$F$10</f>
-        <v>416.66666666666669</v>
-      </c>
-      <c r="G23" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="11">
         <f>SUBTOTAL(109,B14:B23)</f>
-        <v>9600</v>
+        <v>26690</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="11">
         <f>SUBTOTAL(109,D14:D23)</f>
-        <v>2197.8121416131758</v>
+        <v>1972.0769628585231</v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" ref="E24" si="1">SUBTOTAL(109,E14:E23)</f>
-        <v>2876.2726770667587</v>
+        <f t="shared" ref="E24:F24" si="3">SUBTOTAL(109,E14:E23)</f>
+        <v>2307.9647067289634</v>
       </c>
       <c r="F24" s="11">
-        <f>SUBTOTAL(109,F14:F23)</f>
-        <v>4525.9151813200651</v>
+        <f t="shared" si="3"/>
+        <v>3504.5212746225143</v>
       </c>
       <c r="G24" s="11">
-        <f t="shared" si="0"/>
+        <f>SUBTOTAL(109,G14:G23)</f>
+        <v>1937.0045262391679</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" ref="H24:J24" si="4">SUBTOTAL(109,H14:H23)</f>
+        <v>2403.1152372971901</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="4"/>
+        <v>3311.1419124416252</v>
+      </c>
+      <c r="J24" s="11">
+        <f t="shared" si="4"/>
+        <v>3542.85076058702</v>
+      </c>
+      <c r="K24" s="11">
+        <f>SUBTOTAL(109,K14:K23)</f>
+        <v>2070.2386937192227</v>
+      </c>
+      <c r="L24" s="11">
+        <f t="shared" ref="L24:M24" si="5">SUBTOTAL(109,L14:L23)</f>
+        <v>2194.9789529275699</v>
+      </c>
+      <c r="M24" s="11">
+        <f t="shared" si="5"/>
+        <v>3446.1069725782013</v>
+      </c>
+      <c r="N24" s="21">
+        <f>$B24-SUM($D24:$M24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="12">
-        <f>SUM($D25:$F25)</f>
-        <v>-9200</v>
+        <f>SUM($D25:$M25)</f>
+        <v>-31800</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="12">
@@ -1788,37 +2806,86 @@
         <v>-4200</v>
       </c>
       <c r="G25" s="12">
-        <f t="shared" si="0"/>
+        <v>-2000</v>
+      </c>
+      <c r="H25" s="12">
+        <v>-3000</v>
+      </c>
+      <c r="I25" s="12">
+        <v>-4200</v>
+      </c>
+      <c r="J25" s="12">
+        <v>-4200</v>
+      </c>
+      <c r="K25" s="12">
+        <v>-2000</v>
+      </c>
+      <c r="L25" s="12">
+        <v>-3000</v>
+      </c>
+      <c r="M25" s="12">
+        <v>-4200</v>
+      </c>
+      <c r="N25" s="12">
+        <f>$B25-SUM($D25:$M25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="10">
-        <f>SUM($D26:$F26)</f>
-        <v>399.99999999999955</v>
+        <f>SUM($D26:$M26)</f>
+        <v>-5110.0000000000018</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="10">
         <f>$D24+$D25</f>
-        <v>197.81214161317575</v>
+        <v>-27.923037141476925</v>
       </c>
       <c r="E26" s="10">
         <f>$E24+$E25</f>
-        <v>-123.72732293324134</v>
+        <v>-692.03529327103661</v>
       </c>
       <c r="F26" s="10">
         <f>$F24+$F25</f>
-        <v>325.91518132006513</v>
+        <v>-695.47872537748572</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" si="0"/>
+        <f>$G24+$G25</f>
+        <v>-62.995473760832056</v>
+      </c>
+      <c r="H26" s="10">
+        <f>$H24+$H25</f>
+        <v>-596.88476270280989</v>
+      </c>
+      <c r="I26" s="10">
+        <f>$I24+$I25</f>
+        <v>-888.85808755837479</v>
+      </c>
+      <c r="J26" s="10">
+        <f>$J24+$J25</f>
+        <v>-657.14923941298002</v>
+      </c>
+      <c r="K26" s="10">
+        <f>$K24+$K25</f>
+        <v>70.238693719222738</v>
+      </c>
+      <c r="L26" s="10">
+        <f>$L24+$L25</f>
+        <v>-805.02104707243006</v>
+      </c>
+      <c r="M26" s="10">
+        <f>$M24+$M25</f>
+        <v>-753.89302742179871</v>
+      </c>
+      <c r="N26" s="10">
+        <f>$B26-SUM($D26:$M26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -1835,7 +2902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -1844,17 +2911,17 @@
       </c>
       <c r="C29" s="10">
         <f>$F$24/12*10</f>
-        <v>3771.5959844333879</v>
+        <v>2920.4343955187619</v>
       </c>
       <c r="D29" s="10">
         <v>-3500</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" ref="E29:E30" si="2">$C29+$D29</f>
-        <v>271.59598443338791</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E29:E30" si="6">$C29+$D29</f>
+        <v>-579.5656044812381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
@@ -1863,18 +2930,19 @@
       </c>
       <c r="C30" s="10">
         <f>$F$24/12*2</f>
-        <v>754.31919688667756</v>
+        <v>584.08687910375238</v>
       </c>
       <c r="D30" s="10">
         <v>-700</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" si="2"/>
-        <v>54.31919688667756</v>
+        <f t="shared" si="6"/>
+        <v>-115.91312089624762</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="A5:C5"/>
@@ -1882,9 +2950,8 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
   </mergeCells>
-  <conditionalFormatting sqref="D26:F26">
+  <conditionalFormatting sqref="E29:E30">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -1892,7 +2959,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29:E30">
+  <conditionalFormatting sqref="D26:M26">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/realestate/documents/RipartizioneSpeseImmobiliariCondomini.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliariCondomini.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FF7200-F039-40C8-9091-DCCA1A1E157C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBD4590-EDC5-403F-A7EC-1F38166EA2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
@@ -126,12 +126,6 @@
     <t>Calcolo prorata</t>
   </si>
   <si>
-    <t>Inquilino 1</t>
-  </si>
-  <si>
-    <t>Inquilino 2</t>
-  </si>
-  <si>
     <t>Mesi</t>
   </si>
   <si>
@@ -169,6 +163,12 @@
   </si>
   <si>
     <t>App. 10</t>
+  </si>
+  <si>
+    <t>Comproprietario 1</t>
+  </si>
+  <si>
+    <t>Comproprietario 2</t>
   </si>
 </sst>
 </file>
@@ -339,6 +339,9 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -363,34 +366,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -406,6 +386,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -413,6 +396,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
@@ -776,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9073075C-C130-45EE-B2DF-A3C8E1CA77C7}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,11 +794,11 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
@@ -823,36 +809,36 @@
         <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="9">
         <v>70</v>
       </c>
@@ -889,11 +875,11 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="9">
         <v>54</v>
       </c>
@@ -930,11 +916,11 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="9">
         <v>10241</v>
       </c>
@@ -971,11 +957,11 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="9">
         <v>1104</v>
       </c>
@@ -1012,11 +998,11 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="9">
         <v>1</v>
       </c>
@@ -1053,11 +1039,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="9"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1090,28 +1076,28 @@
         <v>15</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="N13" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1177,7 +1163,7 @@
         <v>6000</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="10">
         <f>$B15/$N$6*$D$6</f>
@@ -1232,7 +1218,7 @@
         <v>600</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="10">
         <f>$B16/$N$6*$D$6</f>
@@ -1287,7 +1273,7 @@
         <v>150</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="10">
         <f>$B17/$N$6*$D$6</f>
@@ -1342,7 +1328,7 @@
         <v>2400</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="10">
         <f>$B18/$N$6*$D$6</f>
@@ -1397,7 +1383,7 @@
         <v>900</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="10">
         <f>$B19/$N$6*$D$6</f>
@@ -1507,7 +1493,7 @@
         <v>1500</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="10">
         <f>$B21/$N$6*$D$6</f>
@@ -1562,7 +1548,7 @@
         <v>190</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="10">
         <f>$B22/$N$6*$D$6</f>
@@ -1672,7 +1658,7 @@
         <f>SUBTOTAL(109,B14:B23)</f>
         <v>26690</v>
       </c>
-      <c r="C24" s="16"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="11">
         <f>SUBTOTAL(109,D14:D23)</f>
         <v>1972.0769628585231</v>
@@ -1713,7 +1699,7 @@
         <f t="shared" si="5"/>
         <v>3446.1069725782013</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="13">
         <f>$B24-SUM($D24:$M24)</f>
         <v>0</v>
       </c>
@@ -1726,7 +1712,7 @@
         <f>SUM($D25:$M25)</f>
         <v>-31800</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="12">
         <v>-2000</v>
       </c>
@@ -1770,7 +1756,7 @@
         <f>SUM($D26:$M26)</f>
         <v>-5110.0000000000018</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="10">
         <f>$D24+$D25</f>
         <v>-27.923037141476925</v>
@@ -1828,10 +1814,10 @@
     <mergeCell ref="A10:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="D26:M26">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1845,7 +1831,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1877,11 +1863,11 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1892,36 +1878,36 @@
         <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="9">
         <v>70</v>
       </c>
@@ -1958,11 +1944,11 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="9">
         <v>54</v>
       </c>
@@ -1999,11 +1985,11 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="9">
         <v>10241</v>
       </c>
@@ -2040,11 +2026,11 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="9">
         <v>1104</v>
       </c>
@@ -2081,11 +2067,11 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="9">
         <v>1</v>
       </c>
@@ -2122,11 +2108,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="9"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -2159,28 +2145,28 @@
         <v>15</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="N13" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -2246,7 +2232,7 @@
         <v>6000</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="10">
         <f>$B15/$N$6*$D$6</f>
@@ -2301,7 +2287,7 @@
         <v>600</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="10">
         <f>$B16/$N$6*$D$6</f>
@@ -2356,7 +2342,7 @@
         <v>150</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="10">
         <f>$B17/$N$6*$D$6</f>
@@ -2411,7 +2397,7 @@
         <v>2400</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="10">
         <f>$B18/$N$6*$D$6</f>
@@ -2466,7 +2452,7 @@
         <v>900</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="10">
         <f>$B19/$N$6*$D$6</f>
@@ -2576,7 +2562,7 @@
         <v>1500</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="10">
         <f>$B21/$N$6*$D$6</f>
@@ -2631,7 +2617,7 @@
         <v>190</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="10">
         <f>$B22/$N$6*$D$6</f>
@@ -2741,7 +2727,7 @@
         <f>SUBTOTAL(109,B14:B23)</f>
         <v>26690</v>
       </c>
-      <c r="C24" s="16"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="11">
         <f>SUBTOTAL(109,D14:D23)</f>
         <v>1972.0769628585231</v>
@@ -2782,7 +2768,7 @@
         <f t="shared" si="5"/>
         <v>3446.1069725782013</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="13">
         <f>$B24-SUM($D24:$M24)</f>
         <v>0</v>
       </c>
@@ -2795,7 +2781,7 @@
         <f>SUM($D25:$M25)</f>
         <v>-31800</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="12">
         <v>-2000</v>
       </c>
@@ -2839,7 +2825,7 @@
         <f>SUM($D26:$M26)</f>
         <v>-5110.0000000000018</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="10">
         <f>$D24+$D25</f>
         <v>-27.923037141476925</v>
@@ -2890,21 +2876,21 @@
         <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B29" s="6">
         <v>10</v>
@@ -2923,7 +2909,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B30" s="6">
         <v>2</v>
@@ -2951,19 +2937,19 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
   </mergeCells>
-  <conditionalFormatting sqref="E29:E30">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="D26:M26">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:M26">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="E29:E30">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/realestate/documents/RipartizioneSpeseImmobiliariCondomini.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliariCondomini.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBD4590-EDC5-403F-A7EC-1F38166EA2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144F30D0-2F9D-48E1-8692-E4724BE643B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
@@ -762,9 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9073075C-C130-45EE-B2DF-A3C8E1CA77C7}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/realestate/documents/RipartizioneSpeseImmobiliariCondomini.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliariCondomini.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144F30D0-2F9D-48E1-8692-E4724BE643B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CFDBED-0A4F-4269-9EF6-4F78BEA38C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
+    <workbookView xWindow="57480" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
   <sheets>
     <sheet name="Conguagli spese" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="43">
   <si>
     <t>Riscaldamento</t>
   </si>
@@ -96,21 +96,12 @@
     <t>Totale</t>
   </si>
   <si>
-    <t>Stabile Cedro</t>
-  </si>
-  <si>
-    <t>Ripartizione delle spese di riscaldamento e accessorie</t>
-  </si>
-  <si>
     <t>Periodo:</t>
   </si>
   <si>
     <t>Tipo di ripartizione</t>
   </si>
   <si>
-    <t>consumo</t>
-  </si>
-  <si>
     <t>altro</t>
   </si>
   <si>
@@ -165,10 +156,16 @@
     <t>App. 10</t>
   </si>
   <si>
-    <t>Comproprietario 1</t>
-  </si>
-  <si>
-    <t>Comproprietario 2</t>
+    <t>Suddivisione delle spese ai proprietari</t>
+  </si>
+  <si>
+    <t>Nome Stabile</t>
+  </si>
+  <si>
+    <t>Proprietario 1</t>
+  </si>
+  <si>
+    <t>Proprietario 2</t>
   </si>
 </sst>
 </file>
@@ -370,7 +367,27 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -762,38 +779,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9073075C-C130-45EE-B2DF-A3C8E1CA77C7}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.88671875" customWidth="1"/>
     <col min="2" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>45292</v>
+        <v>46023</v>
       </c>
       <c r="C3" s="2">
-        <v>45657</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -807,25 +827,25 @@
         <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>18</v>
@@ -833,7 +853,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -878,122 +898,53 @@
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="9">
-        <v>54</v>
-      </c>
-      <c r="E7" s="6">
-        <v>85</v>
-      </c>
-      <c r="F7" s="6">
-        <v>124</v>
-      </c>
-      <c r="G7" s="9">
-        <v>54</v>
-      </c>
-      <c r="H7" s="6">
-        <v>85</v>
-      </c>
-      <c r="I7" s="6">
-        <v>124</v>
-      </c>
-      <c r="J7" s="6">
-        <v>130</v>
-      </c>
-      <c r="K7" s="9">
-        <v>95</v>
-      </c>
-      <c r="L7" s="6">
-        <v>95</v>
-      </c>
-      <c r="M7" s="6">
-        <v>130</v>
-      </c>
-      <c r="N7" s="6">
-        <f>SUM($D7:$M7)</f>
-        <v>976</v>
-      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="9">
-        <v>10241</v>
-      </c>
-      <c r="E8" s="6">
-        <v>13400</v>
-      </c>
-      <c r="F8" s="6">
-        <v>22578</v>
-      </c>
-      <c r="G8" s="9">
-        <v>9980</v>
-      </c>
-      <c r="H8" s="6">
-        <v>15050</v>
-      </c>
-      <c r="I8" s="6">
-        <v>20200</v>
-      </c>
-      <c r="J8" s="6">
-        <v>21000</v>
-      </c>
-      <c r="K8" s="9">
-        <v>8690</v>
-      </c>
-      <c r="L8" s="6">
-        <v>10900</v>
-      </c>
-      <c r="M8" s="6">
-        <v>19000</v>
-      </c>
-      <c r="N8" s="6">
-        <f>SUM($D8:$M8)</f>
-        <v>151039</v>
-      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="9">
-        <v>1104</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1210</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1898</v>
-      </c>
-      <c r="G9" s="9">
-        <v>902</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1050</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1490</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1520</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1385</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1140</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1925</v>
-      </c>
-      <c r="N9" s="6">
-        <f>SUM($D9:$M9)</f>
-        <v>13624</v>
-      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
@@ -1032,13 +983,13 @@
         <v>1</v>
       </c>
       <c r="N10" s="6">
-        <f>SUM($D10:$M10)</f>
+        <f>SUM(D10:M10)</f>
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -1062,7 +1013,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>13</v>
@@ -1074,28 +1025,28 @@
         <v>15</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="N13" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1106,51 +1057,51 @@
         <v>10000</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D14" s="10">
-        <f>$B14/$N$8*$D$8</f>
-        <v>678.03679844278622</v>
+        <f>$B14/$N$6*$D$6</f>
+        <v>700</v>
       </c>
       <c r="E14" s="10">
-        <f>$B14/$N$8*$E$8</f>
-        <v>887.18807725157069</v>
+        <f>$B14/$N$6*$E$6</f>
+        <v>800</v>
       </c>
       <c r="F14" s="10">
-        <f>$B14/$N$8*$F$8</f>
-        <v>1494.8457021034301</v>
+        <f t="shared" ref="F14:M14" si="0">$B14/$N$6*$D$6</f>
+        <v>700</v>
       </c>
       <c r="G14" s="10">
-        <f>$B14/$N$8*$G$8</f>
-        <v>660.75649335602054</v>
+        <f t="shared" ref="G14:M14" si="1">$B14/$N$6*$E$6</f>
+        <v>800</v>
       </c>
       <c r="H14" s="10">
-        <f>$B14/$N$8*$H$8</f>
-        <v>996.43138527135363</v>
+        <f t="shared" ref="H14:M14" si="2">$B14/$N$6*$D$6</f>
+        <v>700</v>
       </c>
       <c r="I14" s="10">
-        <f>$B14/$N$8*$I$8</f>
-        <v>1337.4029224240096</v>
+        <f t="shared" ref="I14:M14" si="3">$B14/$N$6*$E$6</f>
+        <v>800</v>
       </c>
       <c r="J14" s="10">
-        <f>$B14/$N$8*$J$8</f>
-        <v>1390.3693747972377</v>
+        <f t="shared" ref="J14:M14" si="4">$B14/$N$6*$D$6</f>
+        <v>700</v>
       </c>
       <c r="K14" s="10">
-        <f>$B14/$N$8*$K$8</f>
-        <v>575.34808890419026</v>
+        <f t="shared" ref="K14:M14" si="5">$B14/$N$6*$E$6</f>
+        <v>800</v>
       </c>
       <c r="L14" s="10">
-        <f>$B14/$N$8*$L$8</f>
-        <v>721.6679135852329</v>
+        <f t="shared" ref="L14:M14" si="6">$B14/$N$6*$D$6</f>
+        <v>700</v>
       </c>
       <c r="M14" s="10">
-        <f>$B14/$N$8*$M$8</f>
-        <v>1257.9532438641675</v>
+        <f t="shared" ref="M14" si="7">$B14/$N$6*$E$6</f>
+        <v>800</v>
       </c>
       <c r="N14" s="10">
         <f>$B14-SUM($D14:$M14)</f>
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1161,7 +1112,7 @@
         <v>6000</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" s="10">
         <f>$B15/$N$6*$D$6</f>
@@ -1216,7 +1167,7 @@
         <v>600</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16" s="10">
         <f>$B16/$N$6*$D$6</f>
@@ -1259,7 +1210,7 @@
         <v>84</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" ref="N16:N23" si="0">$B16-SUM($D16:$M16)</f>
+        <f t="shared" ref="N16:N23" si="8">$B16-SUM($D16:$M16)</f>
         <v>0</v>
       </c>
     </row>
@@ -1271,7 +1222,7 @@
         <v>150</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" s="10">
         <f>$B17/$N$6*$D$6</f>
@@ -1286,11 +1237,11 @@
         <v>18.75</v>
       </c>
       <c r="G17" s="10">
-        <f t="shared" ref="G17:G19" si="1">$B17/$N$6*$G$6</f>
+        <f t="shared" ref="G17:G19" si="9">$B17/$N$6*$G$6</f>
         <v>10.5</v>
       </c>
       <c r="H17" s="10">
-        <f t="shared" ref="H17:H19" si="2">$B17/$N$6*$H$6</f>
+        <f t="shared" ref="H17:H19" si="10">$B17/$N$6*$H$6</f>
         <v>12</v>
       </c>
       <c r="I17" s="10">
@@ -1314,7 +1265,7 @@
         <v>21</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1326,7 +1277,7 @@
         <v>2400</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" s="10">
         <f>$B18/$N$6*$D$6</f>
@@ -1341,11 +1292,11 @@
         <v>300</v>
       </c>
       <c r="G18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>168</v>
       </c>
       <c r="H18" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>192</v>
       </c>
       <c r="I18" s="10">
@@ -1369,7 +1320,7 @@
         <v>336</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1381,7 +1332,7 @@
         <v>900</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19" s="10">
         <f>$B19/$N$6*$D$6</f>
@@ -1396,11 +1347,11 @@
         <v>112.5</v>
       </c>
       <c r="G19" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="H19" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="I19" s="10">
@@ -1424,7 +1375,7 @@
         <v>126</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1436,51 +1387,51 @@
         <v>1200</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D20" s="10">
-        <f>$B20/$N$9*$D$9</f>
-        <v>97.240164415736942</v>
+        <f>$B20/$N$6*$D$6</f>
+        <v>84</v>
       </c>
       <c r="E20" s="10">
-        <f>$B20/$N$9*$E$9</f>
-        <v>106.57662947739284</v>
+        <f>$B20/$N$6*$E$6</f>
+        <v>96</v>
       </c>
       <c r="F20" s="10">
-        <f>$B20/$N$9*$F$9</f>
-        <v>167.17557251908397</v>
+        <f t="shared" ref="F20:M20" si="11">$B20/$N$6*$D$6</f>
+        <v>84</v>
       </c>
       <c r="G20" s="10">
-        <f>$B20/$N$9*$G$9</f>
-        <v>79.448032883147391</v>
+        <f t="shared" ref="G20:M20" si="12">$B20/$N$6*$E$6</f>
+        <v>96</v>
       </c>
       <c r="H20" s="10">
-        <f>$B20/$N$9*$H$9</f>
-        <v>92.483852025836754</v>
+        <f t="shared" ref="H20:M20" si="13">$B20/$N$6*$D$6</f>
+        <v>84</v>
       </c>
       <c r="I20" s="10">
-        <f>$B20/$N$9*$I$9</f>
-        <v>131.23899001761598</v>
+        <f t="shared" ref="I20:M20" si="14">$B20/$N$6*$E$6</f>
+        <v>96</v>
       </c>
       <c r="J20" s="10">
-        <f>$B20/$N$9*$J$9</f>
-        <v>133.88138578978274</v>
+        <f t="shared" ref="J20:M20" si="15">$B20/$N$6*$D$6</f>
+        <v>84</v>
       </c>
       <c r="K20" s="10">
-        <f>$B20/$N$9*$K$9</f>
-        <v>121.9906048150323</v>
+        <f t="shared" ref="K20:M20" si="16">$B20/$N$6*$E$6</f>
+        <v>96</v>
       </c>
       <c r="L20" s="10">
-        <f>$B20/$N$9*$L$9</f>
-        <v>100.41103934233705</v>
+        <f t="shared" ref="L20:M20" si="17">$B20/$N$6*$D$6</f>
+        <v>84</v>
       </c>
       <c r="M20" s="10">
-        <f>$B20/$N$9*$M$9</f>
-        <v>169.55372871403407</v>
+        <f t="shared" ref="M20" si="18">$B20/$N$6*$E$6</f>
+        <v>96</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1491,7 +1442,7 @@
         <v>1500</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D21" s="10">
         <f>$B21/$N$6*$D$6</f>
@@ -1534,7 +1485,7 @@
         <v>210</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1546,7 +1497,7 @@
         <v>190</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D22" s="10">
         <f>$B22/$N$6*$D$6</f>
@@ -1589,7 +1540,7 @@
         <v>26.6</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1644,7 +1595,7 @@
         <v>375</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1659,47 +1610,47 @@
       <c r="C24" s="17"/>
       <c r="D24" s="11">
         <f>SUBTOTAL(109,D14:D23)</f>
-        <v>1972.0769628585231</v>
+        <v>1980.8</v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" ref="E24:F24" si="3">SUBTOTAL(109,E14:E23)</f>
-        <v>2307.9647067289634</v>
+        <f t="shared" ref="E24:F24" si="19">SUBTOTAL(109,E14:E23)</f>
+        <v>2210.1999999999998</v>
       </c>
       <c r="F24" s="11">
-        <f t="shared" si="3"/>
-        <v>3504.5212746225143</v>
+        <f t="shared" si="19"/>
+        <v>2626.5</v>
       </c>
       <c r="G24" s="11">
         <f>SUBTOTAL(109,G14:G23)</f>
-        <v>1937.0045262391679</v>
+        <v>2092.8000000000002</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" ref="H24:J24" si="4">SUBTOTAL(109,H14:H23)</f>
-        <v>2403.1152372971901</v>
+        <f t="shared" ref="H24:J24" si="20">SUBTOTAL(109,H14:H23)</f>
+        <v>2098.1999999999998</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" si="4"/>
-        <v>3311.1419124416252</v>
+        <f t="shared" si="20"/>
+        <v>2738.5</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" si="4"/>
-        <v>3542.85076058702</v>
+        <f t="shared" si="20"/>
+        <v>2802.6</v>
       </c>
       <c r="K24" s="11">
         <f>SUBTOTAL(109,K14:K23)</f>
-        <v>2070.2386937192227</v>
+        <v>2268.9</v>
       </c>
       <c r="L24" s="11">
-        <f t="shared" ref="L24:M24" si="5">SUBTOTAL(109,L14:L23)</f>
-        <v>2194.9789529275699</v>
+        <f t="shared" ref="L24:M24" si="21">SUBTOTAL(109,L14:L23)</f>
+        <v>2156.9</v>
       </c>
       <c r="M24" s="11">
-        <f t="shared" si="5"/>
-        <v>3446.1069725782013</v>
+        <f t="shared" si="21"/>
+        <v>2914.6</v>
       </c>
       <c r="N24" s="13">
         <f>$B24-SUM($D24:$M24)</f>
-        <v>0</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1708,38 +1659,38 @@
       </c>
       <c r="B25" s="12">
         <f>SUM($D25:$M25)</f>
-        <v>-31800</v>
+        <v>-23500</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="12">
+        <v>-1500</v>
+      </c>
+      <c r="E25" s="12">
         <v>-2000</v>
       </c>
-      <c r="E25" s="12">
+      <c r="F25" s="12">
         <v>-3000</v>
       </c>
-      <c r="F25" s="12">
-        <v>-4200</v>
-      </c>
       <c r="G25" s="12">
+        <v>-1500</v>
+      </c>
+      <c r="H25" s="12">
         <v>-2000</v>
       </c>
-      <c r="H25" s="12">
+      <c r="I25" s="12">
         <v>-3000</v>
       </c>
-      <c r="I25" s="12">
-        <v>-4200</v>
-      </c>
       <c r="J25" s="12">
-        <v>-4200</v>
+        <v>-3000</v>
       </c>
       <c r="K25" s="12">
         <v>-2000</v>
       </c>
       <c r="L25" s="12">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="M25" s="12">
-        <v>-4200</v>
+        <v>-3500</v>
       </c>
       <c r="N25" s="12">
         <f>$B25-SUM($D25:$M25)</f>
@@ -1752,48 +1703,48 @@
       </c>
       <c r="B26" s="10">
         <f>SUM($D26:$M26)</f>
-        <v>-5110.0000000000018</v>
+        <v>389.99999999999977</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="10">
         <f>$D24+$D25</f>
-        <v>-27.923037141476925</v>
+        <v>480.79999999999995</v>
       </c>
       <c r="E26" s="10">
         <f>$E24+$E25</f>
-        <v>-692.03529327103661</v>
+        <v>210.19999999999982</v>
       </c>
       <c r="F26" s="10">
         <f>$F24+$F25</f>
-        <v>-695.47872537748572</v>
+        <v>-373.5</v>
       </c>
       <c r="G26" s="10">
         <f>$G24+$G25</f>
-        <v>-62.995473760832056</v>
+        <v>592.80000000000018</v>
       </c>
       <c r="H26" s="10">
         <f>$H24+$H25</f>
-        <v>-596.88476270280989</v>
+        <v>98.199999999999818</v>
       </c>
       <c r="I26" s="10">
         <f>$I24+$I25</f>
-        <v>-888.85808755837479</v>
+        <v>-261.5</v>
       </c>
       <c r="J26" s="10">
         <f>$J24+$J25</f>
-        <v>-657.14923941298002</v>
+        <v>-197.40000000000009</v>
       </c>
       <c r="K26" s="10">
         <f>$K24+$K25</f>
-        <v>70.238693719222738</v>
+        <v>268.90000000000009</v>
       </c>
       <c r="L26" s="10">
         <f>$L24+$L25</f>
-        <v>-805.02104707243006</v>
+        <v>156.90000000000009</v>
       </c>
       <c r="M26" s="10">
         <f>$M24+$M25</f>
-        <v>-753.89302742179871</v>
+        <v>-585.40000000000009</v>
       </c>
       <c r="N26" s="10">
         <f>$B26-SUM($D26:$M26)</f>
@@ -1812,15 +1763,18 @@
     <mergeCell ref="A10:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="D26:M26">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E20:M20 E14:M14" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1829,40 +1783,40 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
     <col min="2" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="4" max="14" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>45292</v>
+        <v>46023</v>
       </c>
       <c r="C3" s="2">
-        <v>45657</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -1876,25 +1830,25 @@
         <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>18</v>
@@ -1902,7 +1856,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -1947,122 +1901,53 @@
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="9">
-        <v>54</v>
-      </c>
-      <c r="E7" s="6">
-        <v>85</v>
-      </c>
-      <c r="F7" s="6">
-        <v>124</v>
-      </c>
-      <c r="G7" s="9">
-        <v>54</v>
-      </c>
-      <c r="H7" s="6">
-        <v>85</v>
-      </c>
-      <c r="I7" s="6">
-        <v>124</v>
-      </c>
-      <c r="J7" s="6">
-        <v>130</v>
-      </c>
-      <c r="K7" s="9">
-        <v>95</v>
-      </c>
-      <c r="L7" s="6">
-        <v>95</v>
-      </c>
-      <c r="M7" s="6">
-        <v>130</v>
-      </c>
-      <c r="N7" s="6">
-        <f>SUM($D7:$M7)</f>
-        <v>976</v>
-      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="9">
-        <v>10241</v>
-      </c>
-      <c r="E8" s="6">
-        <v>13400</v>
-      </c>
-      <c r="F8" s="6">
-        <v>22578</v>
-      </c>
-      <c r="G8" s="9">
-        <v>9980</v>
-      </c>
-      <c r="H8" s="6">
-        <v>15050</v>
-      </c>
-      <c r="I8" s="6">
-        <v>20200</v>
-      </c>
-      <c r="J8" s="6">
-        <v>21000</v>
-      </c>
-      <c r="K8" s="9">
-        <v>8690</v>
-      </c>
-      <c r="L8" s="6">
-        <v>10900</v>
-      </c>
-      <c r="M8" s="6">
-        <v>19000</v>
-      </c>
-      <c r="N8" s="6">
-        <f>SUM($D8:$M8)</f>
-        <v>151039</v>
-      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="9">
-        <v>1104</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1210</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1898</v>
-      </c>
-      <c r="G9" s="9">
-        <v>902</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1050</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1490</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1520</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1385</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1140</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1925</v>
-      </c>
-      <c r="N9" s="6">
-        <f>SUM($D9:$M9)</f>
-        <v>13624</v>
-      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
@@ -2101,13 +1986,13 @@
         <v>1</v>
       </c>
       <c r="N10" s="6">
-        <f>SUM($D10:$M10)</f>
+        <f>SUM(D10:M10)</f>
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -2131,7 +2016,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>13</v>
@@ -2143,28 +2028,28 @@
         <v>15</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="N13" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -2175,51 +2060,51 @@
         <v>10000</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D14" s="10">
-        <f>$B14/$N$8*$D$8</f>
-        <v>678.03679844278622</v>
+        <f>$B14/$N$6*$D$6</f>
+        <v>700</v>
       </c>
       <c r="E14" s="10">
-        <f>$B14/$N$8*$E$8</f>
-        <v>887.18807725157069</v>
+        <f>$B14/$N$6*$E$6</f>
+        <v>800</v>
       </c>
       <c r="F14" s="10">
-        <f>$B14/$N$8*$F$8</f>
-        <v>1494.8457021034301</v>
+        <f t="shared" ref="F14:M14" si="0">$B14/$N$6*$D$6</f>
+        <v>700</v>
       </c>
       <c r="G14" s="10">
-        <f>$B14/$N$8*$G$8</f>
-        <v>660.75649335602054</v>
+        <f t="shared" ref="G14:M14" si="1">$B14/$N$6*$E$6</f>
+        <v>800</v>
       </c>
       <c r="H14" s="10">
-        <f>$B14/$N$8*$H$8</f>
-        <v>996.43138527135363</v>
+        <f t="shared" ref="H14:M14" si="2">$B14/$N$6*$D$6</f>
+        <v>700</v>
       </c>
       <c r="I14" s="10">
-        <f>$B14/$N$8*$I$8</f>
-        <v>1337.4029224240096</v>
+        <f t="shared" ref="I14:M14" si="3">$B14/$N$6*$E$6</f>
+        <v>800</v>
       </c>
       <c r="J14" s="10">
-        <f>$B14/$N$8*$J$8</f>
-        <v>1390.3693747972377</v>
+        <f t="shared" ref="J14:M14" si="4">$B14/$N$6*$D$6</f>
+        <v>700</v>
       </c>
       <c r="K14" s="10">
-        <f>$B14/$N$8*$K$8</f>
-        <v>575.34808890419026</v>
+        <f t="shared" ref="K14:M14" si="5">$B14/$N$6*$E$6</f>
+        <v>800</v>
       </c>
       <c r="L14" s="10">
-        <f>$B14/$N$8*$L$8</f>
-        <v>721.6679135852329</v>
+        <f t="shared" ref="L14:M14" si="6">$B14/$N$6*$D$6</f>
+        <v>700</v>
       </c>
       <c r="M14" s="10">
-        <f>$B14/$N$8*$M$8</f>
-        <v>1257.9532438641675</v>
+        <f t="shared" ref="M14" si="7">$B14/$N$6*$E$6</f>
+        <v>800</v>
       </c>
       <c r="N14" s="10">
         <f>$B14-SUM($D14:$M14)</f>
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -2230,7 +2115,7 @@
         <v>6000</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" s="10">
         <f>$B15/$N$6*$D$6</f>
@@ -2285,7 +2170,7 @@
         <v>600</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16" s="10">
         <f>$B16/$N$6*$D$6</f>
@@ -2328,7 +2213,7 @@
         <v>84</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" ref="N16:N23" si="0">$B16-SUM($D16:$M16)</f>
+        <f t="shared" ref="N16:N23" si="8">$B16-SUM($D16:$M16)</f>
         <v>0</v>
       </c>
     </row>
@@ -2340,7 +2225,7 @@
         <v>150</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" s="10">
         <f>$B17/$N$6*$D$6</f>
@@ -2355,11 +2240,11 @@
         <v>18.75</v>
       </c>
       <c r="G17" s="10">
-        <f t="shared" ref="G17:G19" si="1">$B17/$N$6*$G$6</f>
+        <f t="shared" ref="G17:G19" si="9">$B17/$N$6*$G$6</f>
         <v>10.5</v>
       </c>
       <c r="H17" s="10">
-        <f t="shared" ref="H17:H19" si="2">$B17/$N$6*$H$6</f>
+        <f t="shared" ref="H17:H19" si="10">$B17/$N$6*$H$6</f>
         <v>12</v>
       </c>
       <c r="I17" s="10">
@@ -2383,7 +2268,7 @@
         <v>21</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2395,7 +2280,7 @@
         <v>2400</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" s="10">
         <f>$B18/$N$6*$D$6</f>
@@ -2410,11 +2295,11 @@
         <v>300</v>
       </c>
       <c r="G18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>168</v>
       </c>
       <c r="H18" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>192</v>
       </c>
       <c r="I18" s="10">
@@ -2438,7 +2323,7 @@
         <v>336</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2450,7 +2335,7 @@
         <v>900</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19" s="10">
         <f>$B19/$N$6*$D$6</f>
@@ -2465,11 +2350,11 @@
         <v>112.5</v>
       </c>
       <c r="G19" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="H19" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="I19" s="10">
@@ -2493,7 +2378,7 @@
         <v>126</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2505,51 +2390,51 @@
         <v>1200</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D20" s="10">
-        <f>$B20/$N$9*$D$9</f>
-        <v>97.240164415736942</v>
+        <f>$B20/$N$6*$D$6</f>
+        <v>84</v>
       </c>
       <c r="E20" s="10">
-        <f>$B20/$N$9*$E$9</f>
-        <v>106.57662947739284</v>
+        <f>$B20/$N$6*$E$6</f>
+        <v>96</v>
       </c>
       <c r="F20" s="10">
-        <f>$B20/$N$9*$F$9</f>
-        <v>167.17557251908397</v>
+        <f t="shared" ref="F20:M20" si="11">$B20/$N$6*$D$6</f>
+        <v>84</v>
       </c>
       <c r="G20" s="10">
-        <f>$B20/$N$9*$G$9</f>
-        <v>79.448032883147391</v>
+        <f t="shared" ref="G20:M20" si="12">$B20/$N$6*$E$6</f>
+        <v>96</v>
       </c>
       <c r="H20" s="10">
-        <f>$B20/$N$9*$H$9</f>
-        <v>92.483852025836754</v>
+        <f t="shared" ref="H20:M20" si="13">$B20/$N$6*$D$6</f>
+        <v>84</v>
       </c>
       <c r="I20" s="10">
-        <f>$B20/$N$9*$I$9</f>
-        <v>131.23899001761598</v>
+        <f t="shared" ref="I20:M20" si="14">$B20/$N$6*$E$6</f>
+        <v>96</v>
       </c>
       <c r="J20" s="10">
-        <f>$B20/$N$9*$J$9</f>
-        <v>133.88138578978274</v>
+        <f t="shared" ref="J20:M20" si="15">$B20/$N$6*$D$6</f>
+        <v>84</v>
       </c>
       <c r="K20" s="10">
-        <f>$B20/$N$9*$K$9</f>
-        <v>121.9906048150323</v>
+        <f t="shared" ref="K20:M20" si="16">$B20/$N$6*$E$6</f>
+        <v>96</v>
       </c>
       <c r="L20" s="10">
-        <f>$B20/$N$9*$L$9</f>
-        <v>100.41103934233705</v>
+        <f t="shared" ref="L20:M20" si="17">$B20/$N$6*$D$6</f>
+        <v>84</v>
       </c>
       <c r="M20" s="10">
-        <f>$B20/$N$9*$M$9</f>
-        <v>169.55372871403407</v>
+        <f t="shared" ref="M20" si="18">$B20/$N$6*$E$6</f>
+        <v>96</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -2560,7 +2445,7 @@
         <v>1500</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D21" s="10">
         <f>$B21/$N$6*$D$6</f>
@@ -2603,7 +2488,7 @@
         <v>210</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2615,7 +2500,7 @@
         <v>190</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D22" s="10">
         <f>$B22/$N$6*$D$6</f>
@@ -2658,7 +2543,7 @@
         <v>26.6</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2713,7 +2598,7 @@
         <v>375</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2728,47 +2613,47 @@
       <c r="C24" s="17"/>
       <c r="D24" s="11">
         <f>SUBTOTAL(109,D14:D23)</f>
-        <v>1972.0769628585231</v>
+        <v>1980.8</v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" ref="E24:F24" si="3">SUBTOTAL(109,E14:E23)</f>
-        <v>2307.9647067289634</v>
+        <f t="shared" ref="E24:F24" si="19">SUBTOTAL(109,E14:E23)</f>
+        <v>2210.1999999999998</v>
       </c>
       <c r="F24" s="11">
-        <f t="shared" si="3"/>
-        <v>3504.5212746225143</v>
+        <f t="shared" si="19"/>
+        <v>2626.5</v>
       </c>
       <c r="G24" s="11">
         <f>SUBTOTAL(109,G14:G23)</f>
-        <v>1937.0045262391679</v>
+        <v>2092.8000000000002</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" ref="H24:J24" si="4">SUBTOTAL(109,H14:H23)</f>
-        <v>2403.1152372971901</v>
+        <f t="shared" ref="H24:J24" si="20">SUBTOTAL(109,H14:H23)</f>
+        <v>2098.1999999999998</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" si="4"/>
-        <v>3311.1419124416252</v>
+        <f t="shared" si="20"/>
+        <v>2738.5</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" si="4"/>
-        <v>3542.85076058702</v>
+        <f t="shared" si="20"/>
+        <v>2802.6</v>
       </c>
       <c r="K24" s="11">
         <f>SUBTOTAL(109,K14:K23)</f>
-        <v>2070.2386937192227</v>
+        <v>2268.9</v>
       </c>
       <c r="L24" s="11">
-        <f t="shared" ref="L24:M24" si="5">SUBTOTAL(109,L14:L23)</f>
-        <v>2194.9789529275699</v>
+        <f t="shared" ref="L24:M24" si="21">SUBTOTAL(109,L14:L23)</f>
+        <v>2156.9</v>
       </c>
       <c r="M24" s="11">
-        <f t="shared" si="5"/>
-        <v>3446.1069725782013</v>
+        <f t="shared" si="21"/>
+        <v>2914.6</v>
       </c>
       <c r="N24" s="13">
         <f>$B24-SUM($D24:$M24)</f>
-        <v>0</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -2777,38 +2662,38 @@
       </c>
       <c r="B25" s="12">
         <f>SUM($D25:$M25)</f>
-        <v>-31800</v>
+        <v>-23500</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="12">
+        <v>-1500</v>
+      </c>
+      <c r="E25" s="12">
         <v>-2000</v>
       </c>
-      <c r="E25" s="12">
+      <c r="F25" s="12">
         <v>-3000</v>
       </c>
-      <c r="F25" s="12">
-        <v>-4200</v>
-      </c>
       <c r="G25" s="12">
+        <v>-1500</v>
+      </c>
+      <c r="H25" s="12">
         <v>-2000</v>
       </c>
-      <c r="H25" s="12">
+      <c r="I25" s="12">
         <v>-3000</v>
       </c>
-      <c r="I25" s="12">
-        <v>-4200</v>
-      </c>
       <c r="J25" s="12">
-        <v>-4200</v>
+        <v>-3000</v>
       </c>
       <c r="K25" s="12">
         <v>-2000</v>
       </c>
       <c r="L25" s="12">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="M25" s="12">
-        <v>-4200</v>
+        <v>-3500</v>
       </c>
       <c r="N25" s="12">
         <f>$B25-SUM($D25:$M25)</f>
@@ -2821,48 +2706,48 @@
       </c>
       <c r="B26" s="10">
         <f>SUM($D26:$M26)</f>
-        <v>-5110.0000000000018</v>
+        <v>389.99999999999977</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="10">
         <f>$D24+$D25</f>
-        <v>-27.923037141476925</v>
+        <v>480.79999999999995</v>
       </c>
       <c r="E26" s="10">
         <f>$E24+$E25</f>
-        <v>-692.03529327103661</v>
+        <v>210.19999999999982</v>
       </c>
       <c r="F26" s="10">
         <f>$F24+$F25</f>
-        <v>-695.47872537748572</v>
+        <v>-373.5</v>
       </c>
       <c r="G26" s="10">
         <f>$G24+$G25</f>
-        <v>-62.995473760832056</v>
+        <v>592.80000000000018</v>
       </c>
       <c r="H26" s="10">
         <f>$H24+$H25</f>
-        <v>-596.88476270280989</v>
+        <v>98.199999999999818</v>
       </c>
       <c r="I26" s="10">
         <f>$I24+$I25</f>
-        <v>-888.85808755837479</v>
+        <v>-261.5</v>
       </c>
       <c r="J26" s="10">
         <f>$J24+$J25</f>
-        <v>-657.14923941298002</v>
+        <v>-197.40000000000009</v>
       </c>
       <c r="K26" s="10">
         <f>$K24+$K25</f>
-        <v>70.238693719222738</v>
+        <v>268.90000000000009</v>
       </c>
       <c r="L26" s="10">
         <f>$L24+$L25</f>
-        <v>-805.02104707243006</v>
+        <v>156.90000000000009</v>
       </c>
       <c r="M26" s="10">
         <f>$M24+$M25</f>
-        <v>-753.89302742179871</v>
+        <v>-585.40000000000009</v>
       </c>
       <c r="N26" s="10">
         <f>$B26-SUM($D26:$M26)</f>
@@ -2871,57 +2756,57 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="6">
         <v>10</v>
       </c>
       <c r="C29" s="10">
-        <f>$F$24/12*10</f>
-        <v>2920.4343955187619</v>
+        <f>F24/12*10</f>
+        <v>2188.75</v>
       </c>
       <c r="D29" s="10">
-        <v>-3500</v>
+        <v>-2300</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" ref="E29:E30" si="6">$C29+$D29</f>
-        <v>-579.5656044812381</v>
+        <f t="shared" ref="E29:E30" si="22">$C29+$D29</f>
+        <v>-111.25</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="6">
         <v>2</v>
       </c>
       <c r="C30" s="10">
-        <f>$F$24/12*2</f>
-        <v>584.08687910375238</v>
+        <f>F24/12*2</f>
+        <v>437.75</v>
       </c>
       <c r="D30" s="10">
         <v>-700</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" si="6"/>
-        <v>-115.91312089624762</v>
+        <f t="shared" si="22"/>
+        <v>-262.25</v>
       </c>
     </row>
   </sheetData>
@@ -2935,22 +2820,25 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
   </mergeCells>
-  <conditionalFormatting sqref="D26:M26">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="E29:E30">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29:E30">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="D26:M26">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E20:M20 E14:M14" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/realestate/documents/RipartizioneSpeseImmobiliariCondomini.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliariCondomini.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CFDBED-0A4F-4269-9EF6-4F78BEA38C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A7DB7E-BFA2-476B-9D8D-59FF953DA9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="42">
   <si>
     <t>Riscaldamento</t>
   </si>
@@ -69,15 +69,6 @@
     <t>Tv</t>
   </si>
   <si>
-    <t>Acconti richiesti</t>
-  </si>
-  <si>
-    <t>Conguaglio spese</t>
-  </si>
-  <si>
-    <t>Spesa da ripartire</t>
-  </si>
-  <si>
     <t>App. 1</t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <t>Periodo:</t>
   </si>
   <si>
-    <t>Tipo di ripartizione</t>
-  </si>
-  <si>
     <t>altro</t>
   </si>
   <si>
@@ -166,6 +154,15 @@
   </si>
   <si>
     <t>Proprietario 2</t>
+  </si>
+  <si>
+    <t>Tipo di suddivisione</t>
+  </si>
+  <si>
+    <t>Spesa da suddividere</t>
+  </si>
+  <si>
+    <t>Anticipi richiesti</t>
   </si>
 </sst>
 </file>
@@ -367,27 +364,7 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -780,7 +757,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,17 +769,17 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
         <v>46023</v>
@@ -813,47 +790,47 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -894,7 +871,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -912,7 +889,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
@@ -930,7 +907,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -948,7 +925,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -989,7 +966,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -1007,46 +984,46 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="G13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="N13" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1057,46 +1034,46 @@
         <v>10000</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D14" s="10">
-        <f>$B14/$N$6*$D$6</f>
+        <f t="shared" ref="D14:D22" si="0">$B14/$N$6*$D$6</f>
         <v>700</v>
       </c>
       <c r="E14" s="10">
-        <f>$B14/$N$6*$E$6</f>
+        <f t="shared" ref="E14:E22" si="1">$B14/$N$6*$E$6</f>
         <v>800</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" ref="F14:M14" si="0">$B14/$N$6*$D$6</f>
+        <f t="shared" ref="F14" si="2">$B14/$N$6*$D$6</f>
         <v>700</v>
       </c>
       <c r="G14" s="10">
-        <f t="shared" ref="G14:M14" si="1">$B14/$N$6*$E$6</f>
+        <f t="shared" ref="G14" si="3">$B14/$N$6*$E$6</f>
         <v>800</v>
       </c>
       <c r="H14" s="10">
-        <f t="shared" ref="H14:M14" si="2">$B14/$N$6*$D$6</f>
+        <f t="shared" ref="H14" si="4">$B14/$N$6*$D$6</f>
         <v>700</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" ref="I14:M14" si="3">$B14/$N$6*$E$6</f>
+        <f t="shared" ref="I14" si="5">$B14/$N$6*$E$6</f>
         <v>800</v>
       </c>
       <c r="J14" s="10">
-        <f t="shared" ref="J14:M14" si="4">$B14/$N$6*$D$6</f>
+        <f t="shared" ref="J14" si="6">$B14/$N$6*$D$6</f>
         <v>700</v>
       </c>
       <c r="K14" s="10">
-        <f t="shared" ref="K14:M14" si="5">$B14/$N$6*$E$6</f>
+        <f t="shared" ref="K14" si="7">$B14/$N$6*$E$6</f>
         <v>800</v>
       </c>
       <c r="L14" s="10">
-        <f t="shared" ref="L14:M14" si="6">$B14/$N$6*$D$6</f>
+        <f t="shared" ref="L14" si="8">$B14/$N$6*$D$6</f>
         <v>700</v>
       </c>
       <c r="M14" s="10">
-        <f t="shared" ref="M14" si="7">$B14/$N$6*$E$6</f>
+        <f t="shared" ref="M14" si="9">$B14/$N$6*$E$6</f>
         <v>800</v>
       </c>
       <c r="N14" s="10">
@@ -1112,14 +1089,14 @@
         <v>6000</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" s="10">
-        <f>$B15/$N$6*$D$6</f>
+        <f t="shared" si="0"/>
         <v>420</v>
       </c>
       <c r="E15" s="10">
-        <f>$B15/$N$6*$E$6</f>
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
       <c r="F15" s="10">
@@ -1167,14 +1144,14 @@
         <v>600</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D16" s="10">
-        <f>$B16/$N$6*$D$6</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="E16" s="10">
-        <f>$B16/$N$6*$E$6</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="F16" s="10">
@@ -1210,7 +1187,7 @@
         <v>84</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" ref="N16:N23" si="8">$B16-SUM($D16:$M16)</f>
+        <f t="shared" ref="N16:N23" si="10">$B16-SUM($D16:$M16)</f>
         <v>0</v>
       </c>
     </row>
@@ -1222,14 +1199,14 @@
         <v>150</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D17" s="10">
-        <f>$B17/$N$6*$D$6</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
       <c r="E17" s="10">
-        <f>$B17/$N$6*$E$6</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F17" s="10">
@@ -1237,11 +1214,11 @@
         <v>18.75</v>
       </c>
       <c r="G17" s="10">
-        <f t="shared" ref="G17:G19" si="9">$B17/$N$6*$G$6</f>
+        <f t="shared" ref="G17:G19" si="11">$B17/$N$6*$G$6</f>
         <v>10.5</v>
       </c>
       <c r="H17" s="10">
-        <f t="shared" ref="H17:H19" si="10">$B17/$N$6*$H$6</f>
+        <f t="shared" ref="H17:H19" si="12">$B17/$N$6*$H$6</f>
         <v>12</v>
       </c>
       <c r="I17" s="10">
@@ -1265,7 +1242,7 @@
         <v>21</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1277,14 +1254,14 @@
         <v>2400</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D18" s="10">
-        <f>$B18/$N$6*$D$6</f>
+        <f t="shared" si="0"/>
         <v>168</v>
       </c>
       <c r="E18" s="10">
-        <f>$B18/$N$6*$E$6</f>
+        <f t="shared" si="1"/>
         <v>192</v>
       </c>
       <c r="F18" s="10">
@@ -1292,11 +1269,11 @@
         <v>300</v>
       </c>
       <c r="G18" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>168</v>
       </c>
       <c r="H18" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>192</v>
       </c>
       <c r="I18" s="10">
@@ -1320,7 +1297,7 @@
         <v>336</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1332,14 +1309,14 @@
         <v>900</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D19" s="10">
-        <f>$B19/$N$6*$D$6</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="E19" s="10">
-        <f>$B19/$N$6*$E$6</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="F19" s="10">
@@ -1347,11 +1324,11 @@
         <v>112.5</v>
       </c>
       <c r="G19" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>63</v>
       </c>
       <c r="H19" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
       <c r="I19" s="10">
@@ -1375,7 +1352,7 @@
         <v>126</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1387,50 +1364,50 @@
         <v>1200</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D20" s="10">
-        <f>$B20/$N$6*$D$6</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="E20" s="10">
-        <f>$B20/$N$6*$E$6</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" ref="F20:M20" si="11">$B20/$N$6*$D$6</f>
+        <f t="shared" ref="F20" si="13">$B20/$N$6*$D$6</f>
         <v>84</v>
       </c>
       <c r="G20" s="10">
-        <f t="shared" ref="G20:M20" si="12">$B20/$N$6*$E$6</f>
+        <f t="shared" ref="G20" si="14">$B20/$N$6*$E$6</f>
         <v>96</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" ref="H20:M20" si="13">$B20/$N$6*$D$6</f>
+        <f t="shared" ref="H20" si="15">$B20/$N$6*$D$6</f>
         <v>84</v>
       </c>
       <c r="I20" s="10">
-        <f t="shared" ref="I20:M20" si="14">$B20/$N$6*$E$6</f>
+        <f t="shared" ref="I20" si="16">$B20/$N$6*$E$6</f>
         <v>96</v>
       </c>
       <c r="J20" s="10">
-        <f t="shared" ref="J20:M20" si="15">$B20/$N$6*$D$6</f>
+        <f t="shared" ref="J20" si="17">$B20/$N$6*$D$6</f>
         <v>84</v>
       </c>
       <c r="K20" s="10">
-        <f t="shared" ref="K20:M20" si="16">$B20/$N$6*$E$6</f>
+        <f t="shared" ref="K20" si="18">$B20/$N$6*$E$6</f>
         <v>96</v>
       </c>
       <c r="L20" s="10">
-        <f t="shared" ref="L20:M20" si="17">$B20/$N$6*$D$6</f>
+        <f t="shared" ref="L20" si="19">$B20/$N$6*$D$6</f>
         <v>84</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" ref="M20" si="18">$B20/$N$6*$E$6</f>
+        <f t="shared" ref="M20" si="20">$B20/$N$6*$E$6</f>
         <v>96</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
     </row>
@@ -1442,14 +1419,14 @@
         <v>1500</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D21" s="10">
-        <f>$B21/$N$6*$D$6</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="E21" s="10">
-        <f>$B21/$N$6*$E$6</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="F21" s="10">
@@ -1485,7 +1462,7 @@
         <v>210</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1497,14 +1474,14 @@
         <v>190</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D22" s="10">
-        <f>$B22/$N$6*$D$6</f>
+        <f t="shared" si="0"/>
         <v>13.3</v>
       </c>
       <c r="E22" s="10">
-        <f>$B22/$N$6*$E$6</f>
+        <f t="shared" si="1"/>
         <v>15.2</v>
       </c>
       <c r="F22" s="10">
@@ -1540,7 +1517,7 @@
         <v>26.6</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1552,7 +1529,7 @@
         <v>3750</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23" s="10">
         <f>$B23/$N$10*$D$10</f>
@@ -1595,13 +1572,13 @@
         <v>375</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B24" s="11">
         <f>SUBTOTAL(109,B14:B23)</f>
@@ -1613,11 +1590,11 @@
         <v>1980.8</v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" ref="E24:F24" si="19">SUBTOTAL(109,E14:E23)</f>
+        <f t="shared" ref="E24:F24" si="21">SUBTOTAL(109,E14:E23)</f>
         <v>2210.1999999999998</v>
       </c>
       <c r="F24" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2626.5</v>
       </c>
       <c r="G24" s="11">
@@ -1625,15 +1602,15 @@
         <v>2092.8000000000002</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" ref="H24:J24" si="20">SUBTOTAL(109,H14:H23)</f>
+        <f t="shared" ref="H24:J24" si="22">SUBTOTAL(109,H14:H23)</f>
         <v>2098.1999999999998</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2738.5</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2802.6</v>
       </c>
       <c r="K24" s="11">
@@ -1641,11 +1618,11 @@
         <v>2268.9</v>
       </c>
       <c r="L24" s="11">
-        <f t="shared" ref="L24:M24" si="21">SUBTOTAL(109,L14:L23)</f>
+        <f t="shared" ref="L24:M24" si="23">SUBTOTAL(109,L14:L23)</f>
         <v>2156.9</v>
       </c>
       <c r="M24" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2914.6</v>
       </c>
       <c r="N24" s="13">
@@ -1655,7 +1632,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B25" s="12">
         <f>SUM($D25:$M25)</f>
@@ -1699,7 +1676,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B26" s="10">
         <f>SUM($D26:$M26)</f>
@@ -1763,10 +1740,10 @@
     <mergeCell ref="A10:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="D26:M26">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1783,7 +1760,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1795,17 +1772,17 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
         <v>46023</v>
@@ -1816,47 +1793,47 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -1897,7 +1874,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -1915,7 +1892,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
@@ -1933,7 +1910,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -1951,7 +1928,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -1992,7 +1969,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -2010,46 +1987,46 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="G13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="N13" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -2060,46 +2037,46 @@
         <v>10000</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D14" s="10">
-        <f>$B14/$N$6*$D$6</f>
+        <f t="shared" ref="D14:D22" si="0">$B14/$N$6*$D$6</f>
         <v>700</v>
       </c>
       <c r="E14" s="10">
-        <f>$B14/$N$6*$E$6</f>
+        <f t="shared" ref="E14:E22" si="1">$B14/$N$6*$E$6</f>
         <v>800</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" ref="F14:M14" si="0">$B14/$N$6*$D$6</f>
+        <f t="shared" ref="F14" si="2">$B14/$N$6*$D$6</f>
         <v>700</v>
       </c>
       <c r="G14" s="10">
-        <f t="shared" ref="G14:M14" si="1">$B14/$N$6*$E$6</f>
+        <f t="shared" ref="G14" si="3">$B14/$N$6*$E$6</f>
         <v>800</v>
       </c>
       <c r="H14" s="10">
-        <f t="shared" ref="H14:M14" si="2">$B14/$N$6*$D$6</f>
+        <f t="shared" ref="H14" si="4">$B14/$N$6*$D$6</f>
         <v>700</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" ref="I14:M14" si="3">$B14/$N$6*$E$6</f>
+        <f t="shared" ref="I14" si="5">$B14/$N$6*$E$6</f>
         <v>800</v>
       </c>
       <c r="J14" s="10">
-        <f t="shared" ref="J14:M14" si="4">$B14/$N$6*$D$6</f>
+        <f t="shared" ref="J14" si="6">$B14/$N$6*$D$6</f>
         <v>700</v>
       </c>
       <c r="K14" s="10">
-        <f t="shared" ref="K14:M14" si="5">$B14/$N$6*$E$6</f>
+        <f t="shared" ref="K14" si="7">$B14/$N$6*$E$6</f>
         <v>800</v>
       </c>
       <c r="L14" s="10">
-        <f t="shared" ref="L14:M14" si="6">$B14/$N$6*$D$6</f>
+        <f t="shared" ref="L14" si="8">$B14/$N$6*$D$6</f>
         <v>700</v>
       </c>
       <c r="M14" s="10">
-        <f t="shared" ref="M14" si="7">$B14/$N$6*$E$6</f>
+        <f t="shared" ref="M14" si="9">$B14/$N$6*$E$6</f>
         <v>800</v>
       </c>
       <c r="N14" s="10">
@@ -2115,14 +2092,14 @@
         <v>6000</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" s="10">
-        <f>$B15/$N$6*$D$6</f>
+        <f t="shared" si="0"/>
         <v>420</v>
       </c>
       <c r="E15" s="10">
-        <f>$B15/$N$6*$E$6</f>
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
       <c r="F15" s="10">
@@ -2170,14 +2147,14 @@
         <v>600</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D16" s="10">
-        <f>$B16/$N$6*$D$6</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="E16" s="10">
-        <f>$B16/$N$6*$E$6</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="F16" s="10">
@@ -2213,7 +2190,7 @@
         <v>84</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" ref="N16:N23" si="8">$B16-SUM($D16:$M16)</f>
+        <f t="shared" ref="N16:N23" si="10">$B16-SUM($D16:$M16)</f>
         <v>0</v>
       </c>
     </row>
@@ -2225,14 +2202,14 @@
         <v>150</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D17" s="10">
-        <f>$B17/$N$6*$D$6</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
       <c r="E17" s="10">
-        <f>$B17/$N$6*$E$6</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F17" s="10">
@@ -2240,11 +2217,11 @@
         <v>18.75</v>
       </c>
       <c r="G17" s="10">
-        <f t="shared" ref="G17:G19" si="9">$B17/$N$6*$G$6</f>
+        <f t="shared" ref="G17:G19" si="11">$B17/$N$6*$G$6</f>
         <v>10.5</v>
       </c>
       <c r="H17" s="10">
-        <f t="shared" ref="H17:H19" si="10">$B17/$N$6*$H$6</f>
+        <f t="shared" ref="H17:H19" si="12">$B17/$N$6*$H$6</f>
         <v>12</v>
       </c>
       <c r="I17" s="10">
@@ -2268,7 +2245,7 @@
         <v>21</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2280,14 +2257,14 @@
         <v>2400</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D18" s="10">
-        <f>$B18/$N$6*$D$6</f>
+        <f t="shared" si="0"/>
         <v>168</v>
       </c>
       <c r="E18" s="10">
-        <f>$B18/$N$6*$E$6</f>
+        <f t="shared" si="1"/>
         <v>192</v>
       </c>
       <c r="F18" s="10">
@@ -2295,11 +2272,11 @@
         <v>300</v>
       </c>
       <c r="G18" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>168</v>
       </c>
       <c r="H18" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>192</v>
       </c>
       <c r="I18" s="10">
@@ -2323,7 +2300,7 @@
         <v>336</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2335,14 +2312,14 @@
         <v>900</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D19" s="10">
-        <f>$B19/$N$6*$D$6</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="E19" s="10">
-        <f>$B19/$N$6*$E$6</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="F19" s="10">
@@ -2350,11 +2327,11 @@
         <v>112.5</v>
       </c>
       <c r="G19" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>63</v>
       </c>
       <c r="H19" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
       <c r="I19" s="10">
@@ -2378,7 +2355,7 @@
         <v>126</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2390,50 +2367,50 @@
         <v>1200</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D20" s="10">
-        <f>$B20/$N$6*$D$6</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="E20" s="10">
-        <f>$B20/$N$6*$E$6</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" ref="F20:M20" si="11">$B20/$N$6*$D$6</f>
+        <f t="shared" ref="F20" si="13">$B20/$N$6*$D$6</f>
         <v>84</v>
       </c>
       <c r="G20" s="10">
-        <f t="shared" ref="G20:M20" si="12">$B20/$N$6*$E$6</f>
+        <f t="shared" ref="G20" si="14">$B20/$N$6*$E$6</f>
         <v>96</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" ref="H20:M20" si="13">$B20/$N$6*$D$6</f>
+        <f t="shared" ref="H20" si="15">$B20/$N$6*$D$6</f>
         <v>84</v>
       </c>
       <c r="I20" s="10">
-        <f t="shared" ref="I20:M20" si="14">$B20/$N$6*$E$6</f>
+        <f t="shared" ref="I20" si="16">$B20/$N$6*$E$6</f>
         <v>96</v>
       </c>
       <c r="J20" s="10">
-        <f t="shared" ref="J20:M20" si="15">$B20/$N$6*$D$6</f>
+        <f t="shared" ref="J20" si="17">$B20/$N$6*$D$6</f>
         <v>84</v>
       </c>
       <c r="K20" s="10">
-        <f t="shared" ref="K20:M20" si="16">$B20/$N$6*$E$6</f>
+        <f t="shared" ref="K20" si="18">$B20/$N$6*$E$6</f>
         <v>96</v>
       </c>
       <c r="L20" s="10">
-        <f t="shared" ref="L20:M20" si="17">$B20/$N$6*$D$6</f>
+        <f t="shared" ref="L20" si="19">$B20/$N$6*$D$6</f>
         <v>84</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" ref="M20" si="18">$B20/$N$6*$E$6</f>
+        <f t="shared" ref="M20" si="20">$B20/$N$6*$E$6</f>
         <v>96</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
     </row>
@@ -2445,14 +2422,14 @@
         <v>1500</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D21" s="10">
-        <f>$B21/$N$6*$D$6</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="E21" s="10">
-        <f>$B21/$N$6*$E$6</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="F21" s="10">
@@ -2488,7 +2465,7 @@
         <v>210</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2500,14 +2477,14 @@
         <v>190</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D22" s="10">
-        <f>$B22/$N$6*$D$6</f>
+        <f t="shared" si="0"/>
         <v>13.3</v>
       </c>
       <c r="E22" s="10">
-        <f>$B22/$N$6*$E$6</f>
+        <f t="shared" si="1"/>
         <v>15.2</v>
       </c>
       <c r="F22" s="10">
@@ -2543,7 +2520,7 @@
         <v>26.6</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2555,7 +2532,7 @@
         <v>3750</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23" s="10">
         <f>$B23/$N$10*$D$10</f>
@@ -2598,13 +2575,13 @@
         <v>375</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B24" s="11">
         <f>SUBTOTAL(109,B14:B23)</f>
@@ -2616,11 +2593,11 @@
         <v>1980.8</v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" ref="E24:F24" si="19">SUBTOTAL(109,E14:E23)</f>
+        <f t="shared" ref="E24:F24" si="21">SUBTOTAL(109,E14:E23)</f>
         <v>2210.1999999999998</v>
       </c>
       <c r="F24" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2626.5</v>
       </c>
       <c r="G24" s="11">
@@ -2628,15 +2605,15 @@
         <v>2092.8000000000002</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" ref="H24:J24" si="20">SUBTOTAL(109,H14:H23)</f>
+        <f t="shared" ref="H24:J24" si="22">SUBTOTAL(109,H14:H23)</f>
         <v>2098.1999999999998</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2738.5</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2802.6</v>
       </c>
       <c r="K24" s="11">
@@ -2644,11 +2621,11 @@
         <v>2268.9</v>
       </c>
       <c r="L24" s="11">
-        <f t="shared" ref="L24:M24" si="21">SUBTOTAL(109,L14:L23)</f>
+        <f t="shared" ref="L24:M24" si="23">SUBTOTAL(109,L14:L23)</f>
         <v>2156.9</v>
       </c>
       <c r="M24" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2914.6</v>
       </c>
       <c r="N24" s="13">
@@ -2658,7 +2635,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B25" s="12">
         <f>SUM($D25:$M25)</f>
@@ -2702,7 +2679,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B26" s="10">
         <f>SUM($D26:$M26)</f>
@@ -2756,24 +2733,24 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B29" s="6">
         <v>10</v>
@@ -2786,13 +2763,13 @@
         <v>-2300</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" ref="E29:E30" si="22">$C29+$D29</f>
+        <f t="shared" ref="E29:E30" si="24">$C29+$D29</f>
         <v>-111.25</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B30" s="6">
         <v>2</v>
@@ -2805,7 +2782,7 @@
         <v>-700</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-262.25</v>
       </c>
     </row>
@@ -2820,19 +2797,19 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
   </mergeCells>
-  <conditionalFormatting sqref="E29:E30">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="D26:M26">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:M26">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="E29:E30">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
